--- a/SO SACH/3702076037/2015/BANGKE GTGT - 15.xlsx
+++ b/SO SACH/3702076037/2015/BANGKE GTGT - 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8760" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="Huong dan MV" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$16:$L$164</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$16:$O$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$26:$N$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$17:$Q$145</definedName>
     <definedName name="DSBR">'Huong dan BR'!$R$2:$S$67</definedName>
     <definedName name="DSMV">'Huong dan MV'!$R$2:$T$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'TH - BR'!$B$1:$L$178</definedName>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="573">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -891,27 +891,18 @@
     <t>0303217354-009</t>
   </si>
   <si>
-    <t>HA/15E</t>
-  </si>
-  <si>
     <t>CN Bình Dương - Cty CP Siêu Thị Vinmart</t>
   </si>
   <si>
     <t>0104918404-024</t>
   </si>
   <si>
-    <t>BD/15P</t>
-  </si>
-  <si>
     <t>Cty TNHH SX TM DV Thiên Long</t>
   </si>
   <si>
     <t>0312341968</t>
   </si>
   <si>
-    <t>TL/16P</t>
-  </si>
-  <si>
     <t>0000493</t>
   </si>
   <si>
@@ -1762,6 +1753,162 @@
   </si>
   <si>
     <t>Tổng thuế GTGT của hàng hóa, dịch vụ bán ra:</t>
+  </si>
+  <si>
+    <t>0302907556</t>
+  </si>
+  <si>
+    <t>2901274715</t>
+  </si>
+  <si>
+    <t>3700372584</t>
+  </si>
+  <si>
+    <t>DA/13P</t>
+  </si>
+  <si>
+    <t>0104831030-044</t>
+  </si>
+  <si>
+    <t>AA/14P</t>
+  </si>
+  <si>
+    <t>0312948047</t>
+  </si>
+  <si>
+    <t>KT/14P</t>
+  </si>
+  <si>
+    <t>0100109106-069</t>
+  </si>
+  <si>
+    <t>AA/15T</t>
+  </si>
+  <si>
+    <t>3702268691</t>
+  </si>
+  <si>
+    <t>HP/14P</t>
+  </si>
+  <si>
+    <t>0312564731</t>
+  </si>
+  <si>
+    <t>CE/14P</t>
+  </si>
+  <si>
+    <t>0310585704</t>
+  </si>
+  <si>
+    <t>0311609355</t>
+  </si>
+  <si>
+    <t>BL/15P</t>
+  </si>
+  <si>
+    <t>0309453012</t>
+  </si>
+  <si>
+    <t>TH/13P</t>
+  </si>
+  <si>
+    <t>0104478506</t>
+  </si>
+  <si>
+    <t>TV/14P</t>
+  </si>
+  <si>
+    <t>HA/15P</t>
+  </si>
+  <si>
+    <t>SG/15P</t>
+  </si>
+  <si>
+    <t>3700762390</t>
+  </si>
+  <si>
+    <t>BM/13P</t>
+  </si>
+  <si>
+    <t>0312522481</t>
+  </si>
+  <si>
+    <t>PT/13P</t>
+  </si>
+  <si>
+    <t>0312516745</t>
+  </si>
+  <si>
+    <t>TM/14P</t>
+  </si>
+  <si>
+    <t>0311777173</t>
+  </si>
+  <si>
+    <t>BC/14P</t>
+  </si>
+  <si>
+    <t>0312534423</t>
+  </si>
+  <si>
+    <t>1101296531</t>
+  </si>
+  <si>
+    <t>HG/15P</t>
+  </si>
+  <si>
+    <t>0312889289</t>
+  </si>
+  <si>
+    <t>VD/14P</t>
+  </si>
+  <si>
+    <t>TL/14P</t>
+  </si>
+  <si>
+    <t>3700838339</t>
+  </si>
+  <si>
+    <t>0312947639</t>
+  </si>
+  <si>
+    <t>3700426550</t>
+  </si>
+  <si>
+    <t>3500662705</t>
+  </si>
+  <si>
+    <t>0312544728</t>
+  </si>
+  <si>
+    <t>3702314958</t>
+  </si>
+  <si>
+    <t>0313185447</t>
+  </si>
+  <si>
+    <t>0302271510</t>
+  </si>
+  <si>
+    <t>3702375090</t>
+  </si>
+  <si>
+    <t>3700664957</t>
+  </si>
+  <si>
+    <t>3502281624</t>
+  </si>
+  <si>
+    <t>3600919305</t>
+  </si>
+  <si>
+    <t>0313392316</t>
+  </si>
+  <si>
+    <t>3700692104</t>
+  </si>
+  <si>
+    <t>0310230860</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +2007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2064,17 +2211,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2112,6 +2248,30 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2475,11 +2635,17 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2496,32 +2662,23 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2548,6 +2705,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,13 +2716,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2580,7 +2740,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2598,7 +2758,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2622,20 +2782,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2680,7 +2840,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +3045,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,32 +3489,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:Q168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B13" sqref="B13"/>
-      <selection pane="bottomLeft" activeCell="G147" sqref="G147"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -3427,37 +3587,37 @@
       <c r="M5" s="134"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
     </row>
     <row r="7" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="124" t="str">
+      <c r="B7" s="135" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;O15&amp;" Năm "&amp;YEAR(F18)</f>
-        <v>Kỳ tính thuế: Quý 1 Năm 2015</v>
-      </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
+        <v>Kỳ tính thuế: Quý 4 Năm 2015</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
@@ -3473,12 +3633,12 @@
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3494,67 +3654,67 @@
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
     </row>
     <row r="13" spans="1:15" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="131" t="s">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="131" t="s">
+      <c r="H13" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="131" t="s">
+      <c r="I13" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="131" t="s">
+      <c r="J13" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="131" t="s">
+      <c r="L13" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="131" t="s">
+      <c r="M13" s="126" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="37" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
     </row>
     <row r="15" spans="1:15" s="37" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="126"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="43" t="s">
         <v>43</v>
       </c>
@@ -3567,15 +3727,15 @@
       <c r="F15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="O15" s="176">
-        <v>1</v>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="O15" s="124">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -3632,15 +3792,15 @@
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
     </row>
-    <row r="18" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="49">
         <f>IF(G18&lt;&gt;"",ROW()-17,"")</f>
         <v>1</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="D18" s="51">
+      <c r="D18" s="51" t="str">
         <f t="shared" ref="D18:D50" si="0">IF(ISNA(VLOOKUP(G18,DSMV,3,0)),"",VLOOKUP(G18,DSMV,3,0))</f>
-        <v>0</v>
+        <v>DA/13P</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>133</v>
@@ -3651,9 +3811,9 @@
       <c r="G18" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="94">
+      <c r="H18" s="94" t="str">
         <f t="shared" ref="H18:H50" si="1">IF(ISNA(VLOOKUP(G18,DSMV,2,0)),"",VLOOKUP(G18,DSMV,2,0))</f>
-        <v>0</v>
+        <v>3700372584</v>
       </c>
       <c r="I18" s="54" t="s">
         <v>205</v>
@@ -3675,15 +3835,15 @@
       <c r="P18" s="58"/>
       <c r="Q18" s="60"/>
     </row>
-    <row r="19" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61">
         <f>IF(G19&lt;&gt;"",ROW()-17,"")</f>
         <v>2</v>
       </c>
       <c r="C19" s="62"/>
-      <c r="D19" s="63">
+      <c r="D19" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/14P</v>
       </c>
       <c r="E19" s="64" t="s">
         <v>134</v>
@@ -3694,9 +3854,9 @@
       <c r="G19" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H19" s="95">
+      <c r="H19" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0104831030-044</v>
       </c>
       <c r="I19" s="65" t="s">
         <v>97</v>
@@ -3718,7 +3878,7 @@
       <c r="P19" s="58"/>
       <c r="Q19" s="60"/>
     </row>
-    <row r="20" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="61">
         <f t="shared" ref="B20:B50" si="2">IF(G20&lt;&gt;"",ROW()-17,"")</f>
         <v>3</v>
@@ -3760,15 +3920,15 @@
       <c r="O20" s="59"/>
       <c r="P20" s="58"/>
     </row>
-    <row r="21" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="61">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C21" s="62"/>
-      <c r="D21" s="63">
+      <c r="D21" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/15T</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>136</v>
@@ -3779,9 +3939,9 @@
       <c r="G21" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="H21" s="95">
+      <c r="H21" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0100109106-069</v>
       </c>
       <c r="I21" s="65" t="s">
         <v>207</v>
@@ -3802,15 +3962,15 @@
       <c r="O21" s="59"/>
       <c r="P21" s="58"/>
     </row>
-    <row r="22" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="61">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C22" s="62"/>
-      <c r="D22" s="63">
+      <c r="D22" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>CE/14P</v>
       </c>
       <c r="E22" s="62" t="s">
         <v>137</v>
@@ -3821,9 +3981,9 @@
       <c r="G22" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="95">
+      <c r="H22" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0312564731</v>
       </c>
       <c r="I22" s="65" t="s">
         <v>87</v>
@@ -3844,7 +4004,7 @@
       <c r="O22" s="59"/>
       <c r="P22" s="58"/>
     </row>
-    <row r="23" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="61">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3886,7 +4046,7 @@
       <c r="O23" s="59"/>
       <c r="P23" s="58"/>
     </row>
-    <row r="24" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="61">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3928,15 +4088,15 @@
       <c r="O24" s="59"/>
       <c r="P24" s="58"/>
     </row>
-    <row r="25" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="61">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C25" s="62"/>
-      <c r="D25" s="63">
+      <c r="D25" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>BL/15P</v>
       </c>
       <c r="E25" s="62" t="s">
         <v>140</v>
@@ -3947,9 +4107,9 @@
       <c r="G25" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0311609355</v>
       </c>
       <c r="I25" s="65" t="s">
         <v>208</v>
@@ -3969,15 +4129,15 @@
       <c r="N25" s="58"/>
       <c r="O25" s="59"/>
     </row>
-    <row r="26" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="61">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C26" s="68"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>TH/13P</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>141</v>
@@ -3988,9 +4148,9 @@
       <c r="G26" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0309453012</v>
       </c>
       <c r="I26" s="65" t="s">
         <v>209</v>
@@ -4010,7 +4170,7 @@
       <c r="N26" s="58"/>
       <c r="O26" s="59"/>
     </row>
-    <row r="27" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="61">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4051,15 +4211,15 @@
       <c r="N27" s="58"/>
       <c r="O27" s="59"/>
     </row>
-    <row r="28" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C28" s="68"/>
-      <c r="D28" s="63">
+      <c r="D28" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>TV/14P</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>143</v>
@@ -4070,9 +4230,9 @@
       <c r="G28" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="95">
+      <c r="H28" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0104478506</v>
       </c>
       <c r="I28" s="65" t="s">
         <v>210</v>
@@ -4092,7 +4252,7 @@
       <c r="N28" s="58"/>
       <c r="O28" s="59"/>
     </row>
-    <row r="29" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="61">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4133,7 +4293,7 @@
       <c r="N29" s="58"/>
       <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="61">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4174,7 +4334,7 @@
       <c r="N30" s="58"/>
       <c r="O30" s="59"/>
     </row>
-    <row r="31" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="61">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4182,7 +4342,7 @@
       <c r="C31" s="68"/>
       <c r="D31" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>HA/15E</v>
+        <v>HA/15P</v>
       </c>
       <c r="E31" s="62" t="s">
         <v>146</v>
@@ -4215,7 +4375,7 @@
       <c r="N31" s="58"/>
       <c r="O31" s="59"/>
     </row>
-    <row r="32" spans="2:17" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="61">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4256,7 +4416,7 @@
       <c r="N32" s="58"/>
       <c r="O32" s="59"/>
     </row>
-    <row r="33" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="61">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4264,7 +4424,7 @@
       <c r="C33" s="68"/>
       <c r="D33" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>HA/15E</v>
+        <v>HA/15P</v>
       </c>
       <c r="E33" s="62" t="s">
         <v>148</v>
@@ -4297,7 +4457,7 @@
       <c r="N33" s="58"/>
       <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="61">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4338,7 +4498,7 @@
       <c r="N34" s="58"/>
       <c r="O34" s="59"/>
     </row>
-    <row r="35" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="61">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4346,7 +4506,7 @@
       <c r="C35" s="68"/>
       <c r="D35" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>HA/15E</v>
+        <v>HA/15P</v>
       </c>
       <c r="E35" s="62" t="s">
         <v>150</v>
@@ -4379,15 +4539,15 @@
       <c r="N35" s="58"/>
       <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="61">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C36" s="68"/>
-      <c r="D36" s="63">
+      <c r="D36" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>TV/14P</v>
       </c>
       <c r="E36" s="62" t="s">
         <v>151</v>
@@ -4398,9 +4558,9 @@
       <c r="G36" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="H36" s="95">
+      <c r="H36" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0104478506</v>
       </c>
       <c r="I36" s="65" t="s">
         <v>210</v>
@@ -4420,7 +4580,7 @@
       <c r="N36" s="58"/>
       <c r="O36" s="59"/>
     </row>
-    <row r="37" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="61">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4461,7 +4621,7 @@
       <c r="N37" s="58"/>
       <c r="O37" s="59"/>
     </row>
-    <row r="38" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="61">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -4502,7 +4662,7 @@
       <c r="N38" s="58"/>
       <c r="O38" s="59"/>
     </row>
-    <row r="39" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="61">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -4543,7 +4703,7 @@
       <c r="N39" s="58"/>
       <c r="O39" s="59"/>
     </row>
-    <row r="40" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="61">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -4551,7 +4711,7 @@
       <c r="C40" s="68"/>
       <c r="D40" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>HA/15E</v>
+        <v>HA/15P</v>
       </c>
       <c r="E40" s="62" t="s">
         <v>155</v>
@@ -4584,7 +4744,7 @@
       <c r="N40" s="58"/>
       <c r="O40" s="59"/>
     </row>
-    <row r="41" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="61">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -4625,7 +4785,7 @@
       <c r="N41" s="58"/>
       <c r="O41" s="59"/>
     </row>
-    <row r="42" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="61">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4633,7 +4793,7 @@
       <c r="C42" s="68"/>
       <c r="D42" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>BD/15P</v>
+        <v>SG/15P</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>157</v>
@@ -4642,7 +4802,7 @@
         <v>42200</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H42" s="95" t="str">
         <f t="shared" si="1"/>
@@ -4666,7 +4826,7 @@
       <c r="N42" s="58"/>
       <c r="O42" s="59"/>
     </row>
-    <row r="43" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="61">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4707,7 +4867,7 @@
       <c r="N43" s="58"/>
       <c r="O43" s="59"/>
     </row>
-    <row r="44" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="61">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4748,7 +4908,7 @@
       <c r="N44" s="58"/>
       <c r="O44" s="59"/>
     </row>
-    <row r="45" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="61">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -4789,7 +4949,7 @@
       <c r="N45" s="58"/>
       <c r="O45" s="59"/>
     </row>
-    <row r="46" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="61">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -4830,7 +4990,7 @@
       <c r="N46" s="58"/>
       <c r="O46" s="59"/>
     </row>
-    <row r="47" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="61">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -4838,7 +4998,7 @@
       <c r="C47" s="68"/>
       <c r="D47" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>BD/15P</v>
+        <v>SG/15P</v>
       </c>
       <c r="E47" s="62" t="s">
         <v>162</v>
@@ -4847,7 +5007,7 @@
         <v>42220</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H47" s="95" t="str">
         <f t="shared" si="1"/>
@@ -4871,7 +5031,7 @@
       <c r="N47" s="58"/>
       <c r="O47" s="59"/>
     </row>
-    <row r="48" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="61">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -4912,7 +5072,7 @@
       <c r="N48" s="58"/>
       <c r="O48" s="59"/>
     </row>
-    <row r="49" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="61">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -4953,7 +5113,7 @@
       <c r="N49" s="58"/>
       <c r="O49" s="59"/>
     </row>
-    <row r="50" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="61">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -4994,7 +5154,7 @@
       <c r="N50" s="58"/>
       <c r="O50" s="59"/>
     </row>
-    <row r="51" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="61">
         <f t="shared" ref="B51:B63" si="3">IF(G51&lt;&gt;"",ROW()-17,"")</f>
         <v>34</v>
@@ -5035,7 +5195,7 @@
       <c r="N51" s="58"/>
       <c r="O51" s="59"/>
     </row>
-    <row r="52" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="61">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -5076,7 +5236,7 @@
       <c r="N52" s="58"/>
       <c r="O52" s="59"/>
     </row>
-    <row r="53" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="61">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -5117,7 +5277,7 @@
       <c r="N53" s="58"/>
       <c r="O53" s="59"/>
     </row>
-    <row r="54" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="61">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -5246,9 +5406,9 @@
         <v>40</v>
       </c>
       <c r="C57" s="68"/>
-      <c r="D57" s="63">
+      <c r="D57" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>BM/13P</v>
       </c>
       <c r="E57" s="62" t="s">
         <v>172</v>
@@ -5259,9 +5419,9 @@
       <c r="G57" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="H57" s="95">
+      <c r="H57" s="95" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3700762390</v>
       </c>
       <c r="I57" s="65" t="s">
         <v>212</v>
@@ -5328,9 +5488,9 @@
         <v>42</v>
       </c>
       <c r="C59" s="68"/>
-      <c r="D59" s="63">
+      <c r="D59" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>PT/13P</v>
       </c>
       <c r="E59" s="62" t="s">
         <v>174</v>
@@ -5341,9 +5501,9 @@
       <c r="G59" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H59" s="95">
+      <c r="H59" s="95" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0312522481</v>
       </c>
       <c r="I59" s="65" t="s">
         <v>213</v>
@@ -5453,7 +5613,7 @@
       <c r="C62" s="68"/>
       <c r="D62" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>HA/15E</v>
+        <v>HA/15P</v>
       </c>
       <c r="E62" s="62" t="s">
         <v>177</v>
@@ -5574,9 +5734,9 @@
         <v>48</v>
       </c>
       <c r="C65" s="68"/>
-      <c r="D65" s="63">
+      <c r="D65" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>TV/14P</v>
       </c>
       <c r="E65" s="62" t="s">
         <v>180</v>
@@ -5587,9 +5747,9 @@
       <c r="G65" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="H65" s="95">
+      <c r="H65" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0104478506</v>
       </c>
       <c r="I65" s="65" t="s">
         <v>210</v>
@@ -5656,9 +5816,9 @@
         <v>50</v>
       </c>
       <c r="C67" s="68"/>
-      <c r="D67" s="63">
+      <c r="D67" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>BC/14P</v>
       </c>
       <c r="E67" s="62" t="s">
         <v>118</v>
@@ -5669,9 +5829,9 @@
       <c r="G67" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="H67" s="95">
+      <c r="H67" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0311777173</v>
       </c>
       <c r="I67" s="65" t="s">
         <v>214</v>
@@ -5863,7 +6023,7 @@
       <c r="C72" s="68"/>
       <c r="D72" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>HA/15E</v>
+        <v>HA/15P</v>
       </c>
       <c r="E72" s="62" t="s">
         <v>186</v>
@@ -5945,7 +6105,7 @@
       <c r="C74" s="68"/>
       <c r="D74" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>BD/15P</v>
+        <v>SG/15P</v>
       </c>
       <c r="E74" s="62" t="s">
         <v>188</v>
@@ -5954,7 +6114,7 @@
         <v>42346</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H74" s="95" t="str">
         <f t="shared" si="8"/>
@@ -6066,25 +6226,25 @@
         <v>60</v>
       </c>
       <c r="C77" s="68"/>
-      <c r="D77" s="63">
+      <c r="D77" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>TM/14P</v>
       </c>
       <c r="E77" s="121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F77" s="93">
         <v>42297</v>
       </c>
       <c r="G77" s="122" t="s">
-        <v>242</v>
-      </c>
-      <c r="H77" s="95">
+        <v>239</v>
+      </c>
+      <c r="H77" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312516745</v>
       </c>
       <c r="I77" s="123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J77" s="66">
         <v>50005120</v>
@@ -6102,7 +6262,7 @@
       <c r="N77" s="58"/>
       <c r="O77" s="59"/>
     </row>
-    <row r="78" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="61">
         <f t="shared" si="6"/>
         <v>61</v>
@@ -6113,7 +6273,7 @@
         <v>HT/14P</v>
       </c>
       <c r="E78" s="62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F78" s="93">
         <v>42012</v>
@@ -6128,7 +6288,9 @@
       <c r="I78" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J78" s="66"/>
+      <c r="J78" s="66">
+        <v>17820475</v>
+      </c>
       <c r="K78" s="56">
         <v>0.1</v>
       </c>
@@ -6141,7 +6303,7 @@
       <c r="N78" s="58"/>
       <c r="O78" s="59"/>
     </row>
-    <row r="79" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="61">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -6152,7 +6314,7 @@
         <v>HT/14P</v>
       </c>
       <c r="E79" s="62" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F79" s="93">
         <v>42027</v>
@@ -6167,7 +6329,9 @@
       <c r="I79" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J79" s="66"/>
+      <c r="J79" s="66">
+        <v>17389510</v>
+      </c>
       <c r="K79" s="56">
         <v>0.1</v>
       </c>
@@ -6180,7 +6344,7 @@
       <c r="N79" s="58"/>
       <c r="O79" s="59"/>
     </row>
-    <row r="80" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="61">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -6191,7 +6355,7 @@
         <v>HT/14P</v>
       </c>
       <c r="E80" s="62" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F80" s="93">
         <v>42028</v>
@@ -6206,7 +6370,9 @@
       <c r="I80" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J80" s="66"/>
+      <c r="J80" s="66">
+        <v>18127526</v>
+      </c>
       <c r="K80" s="56">
         <v>0.1</v>
       </c>
@@ -6219,7 +6385,7 @@
       <c r="N80" s="58"/>
       <c r="O80" s="59"/>
     </row>
-    <row r="81" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="61">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -6230,7 +6396,7 @@
         <v>HT/14P</v>
       </c>
       <c r="E81" s="62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F81" s="93">
         <v>42030</v>
@@ -6245,7 +6411,9 @@
       <c r="I81" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J81" s="66"/>
+      <c r="J81" s="66">
+        <v>8555956</v>
+      </c>
       <c r="K81" s="56">
         <v>0.1</v>
       </c>
@@ -6258,33 +6426,35 @@
       <c r="N81" s="58"/>
       <c r="O81" s="59"/>
     </row>
-    <row r="82" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="61">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="C82" s="68"/>
-      <c r="D82" s="63">
+      <c r="D82" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E82" s="62" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F82" s="93">
         <v>42066</v>
       </c>
       <c r="G82" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H82" s="95">
+        <v>240</v>
+      </c>
+      <c r="H82" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I82" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="66"/>
+      <c r="J82" s="66">
+        <v>18027000</v>
+      </c>
       <c r="K82" s="56">
         <v>0.1</v>
       </c>
@@ -6297,33 +6467,35 @@
       <c r="N82" s="58"/>
       <c r="O82" s="59"/>
     </row>
-    <row r="83" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="61">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="C83" s="68"/>
-      <c r="D83" s="63">
+      <c r="D83" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E83" s="62" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F83" s="93">
         <v>42068</v>
       </c>
       <c r="G83" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H83" s="95">
+        <v>240</v>
+      </c>
+      <c r="H83" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I83" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J83" s="66"/>
+      <c r="J83" s="66">
+        <v>17458500</v>
+      </c>
       <c r="K83" s="56">
         <v>0.1</v>
       </c>
@@ -6336,33 +6508,35 @@
       <c r="N83" s="58"/>
       <c r="O83" s="59"/>
     </row>
-    <row r="84" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="61">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="C84" s="68"/>
-      <c r="D84" s="63">
+      <c r="D84" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E84" s="62" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F84" s="93">
         <v>42076</v>
       </c>
       <c r="G84" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H84" s="95">
+        <v>241</v>
+      </c>
+      <c r="H84" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I84" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J84" s="66"/>
+      <c r="J84" s="66">
+        <v>16983250</v>
+      </c>
       <c r="K84" s="56">
         <v>0.1</v>
       </c>
@@ -6375,33 +6549,35 @@
       <c r="N84" s="58"/>
       <c r="O84" s="59"/>
     </row>
-    <row r="85" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="61">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="C85" s="68"/>
-      <c r="D85" s="63">
+      <c r="D85" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E85" s="62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F85" s="93">
         <v>42078</v>
       </c>
       <c r="G85" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H85" s="95">
+        <v>240</v>
+      </c>
+      <c r="H85" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I85" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J85" s="66"/>
+      <c r="J85" s="66">
+        <v>16272000</v>
+      </c>
       <c r="K85" s="56">
         <v>0.1</v>
       </c>
@@ -6414,33 +6590,35 @@
       <c r="N85" s="58"/>
       <c r="O85" s="59"/>
     </row>
-    <row r="86" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="61">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="C86" s="68"/>
-      <c r="D86" s="63">
+      <c r="D86" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E86" s="62" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F86" s="93">
         <v>42080</v>
       </c>
       <c r="G86" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H86" s="95">
+        <v>240</v>
+      </c>
+      <c r="H86" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I86" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J86" s="66"/>
+      <c r="J86" s="66">
+        <v>15377040</v>
+      </c>
       <c r="K86" s="56">
         <v>0.1</v>
       </c>
@@ -6453,33 +6631,35 @@
       <c r="N86" s="58"/>
       <c r="O86" s="59"/>
     </row>
-    <row r="87" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="61">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="C87" s="68"/>
-      <c r="D87" s="63">
+      <c r="D87" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E87" s="62" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F87" s="93">
         <v>42123</v>
       </c>
       <c r="G87" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H87" s="95">
+        <v>241</v>
+      </c>
+      <c r="H87" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I87" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J87" s="66"/>
+      <c r="J87" s="66">
+        <v>24195154</v>
+      </c>
       <c r="K87" s="56">
         <v>0.1</v>
       </c>
@@ -6492,33 +6672,35 @@
       <c r="N87" s="58"/>
       <c r="O87" s="59"/>
     </row>
-    <row r="88" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="61">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="C88" s="68"/>
-      <c r="D88" s="63">
+      <c r="D88" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E88" s="62" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F88" s="93">
         <v>42153</v>
       </c>
       <c r="G88" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="H88" s="95">
+        <v>242</v>
+      </c>
+      <c r="H88" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312534423</v>
       </c>
       <c r="I88" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J88" s="66"/>
+      <c r="J88" s="66">
+        <v>4100500</v>
+      </c>
       <c r="K88" s="56">
         <v>0.1</v>
       </c>
@@ -6531,15 +6713,15 @@
       <c r="N88" s="58"/>
       <c r="O88" s="59"/>
     </row>
-    <row r="89" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="61">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="C89" s="68"/>
-      <c r="D89" s="63">
+      <c r="D89" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E89" s="62" t="s">
         <v>115</v>
@@ -6548,16 +6730,18 @@
         <v>42154</v>
       </c>
       <c r="G89" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H89" s="95">
+        <v>241</v>
+      </c>
+      <c r="H89" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I89" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J89" s="66"/>
+      <c r="J89" s="66">
+        <v>21590608</v>
+      </c>
       <c r="K89" s="56">
         <v>0.1</v>
       </c>
@@ -6570,33 +6754,35 @@
       <c r="N89" s="58"/>
       <c r="O89" s="59"/>
     </row>
-    <row r="90" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="61">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="C90" s="68"/>
-      <c r="D90" s="63">
+      <c r="D90" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E90" s="62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F90" s="93">
         <v>42174</v>
       </c>
       <c r="G90" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H90" s="95">
+        <v>241</v>
+      </c>
+      <c r="H90" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I90" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J90" s="66"/>
+      <c r="J90" s="66">
+        <v>3278150</v>
+      </c>
       <c r="K90" s="56">
         <v>0.1</v>
       </c>
@@ -6609,15 +6795,15 @@
       <c r="N90" s="58"/>
       <c r="O90" s="59"/>
     </row>
-    <row r="91" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="61">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="C91" s="68"/>
-      <c r="D91" s="63">
+      <c r="D91" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E91" s="62" t="s">
         <v>89</v>
@@ -6626,16 +6812,18 @@
         <v>42175</v>
       </c>
       <c r="G91" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H91" s="95">
+        <v>241</v>
+      </c>
+      <c r="H91" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I91" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J91" s="66"/>
+      <c r="J91" s="66">
+        <v>8639400</v>
+      </c>
       <c r="K91" s="56">
         <v>0.1</v>
       </c>
@@ -6648,33 +6836,35 @@
       <c r="N91" s="58"/>
       <c r="O91" s="59"/>
     </row>
-    <row r="92" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="61">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="C92" s="68"/>
-      <c r="D92" s="63">
+      <c r="D92" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E92" s="62" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F92" s="93">
         <v>42176</v>
       </c>
       <c r="G92" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H92" s="95">
+        <v>240</v>
+      </c>
+      <c r="H92" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I92" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J92" s="66"/>
+      <c r="J92" s="66">
+        <v>151196700</v>
+      </c>
       <c r="K92" s="56">
         <v>0.1</v>
       </c>
@@ -6687,33 +6877,35 @@
       <c r="N92" s="58"/>
       <c r="O92" s="59"/>
     </row>
-    <row r="93" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="61">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="C93" s="68"/>
-      <c r="D93" s="63">
+      <c r="D93" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E93" s="62" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F93" s="93">
         <v>42178</v>
       </c>
       <c r="G93" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H93" s="95">
+        <v>240</v>
+      </c>
+      <c r="H93" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I93" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J93" s="66"/>
+      <c r="J93" s="66">
+        <v>27353850</v>
+      </c>
       <c r="K93" s="56">
         <v>0.1</v>
       </c>
@@ -6726,7 +6918,7 @@
       <c r="N93" s="58"/>
       <c r="O93" s="59"/>
     </row>
-    <row r="94" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="61">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -6737,7 +6929,7 @@
         <v>TP/13P</v>
       </c>
       <c r="E94" s="62" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F94" s="93">
         <v>42182</v>
@@ -6752,7 +6944,9 @@
       <c r="I94" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J94" s="66"/>
+      <c r="J94" s="66">
+        <v>2349960</v>
+      </c>
       <c r="K94" s="56">
         <v>0.1</v>
       </c>
@@ -6765,15 +6959,15 @@
       <c r="N94" s="58"/>
       <c r="O94" s="59"/>
     </row>
-    <row r="95" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="61">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="C95" s="68"/>
-      <c r="D95" s="63">
+      <c r="D95" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E95" s="62" t="s">
         <v>117</v>
@@ -6782,16 +6976,18 @@
         <v>42183</v>
       </c>
       <c r="G95" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H95" s="95">
+        <v>241</v>
+      </c>
+      <c r="H95" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I95" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J95" s="66"/>
+      <c r="J95" s="66">
+        <v>6650681</v>
+      </c>
       <c r="K95" s="56">
         <v>0.1</v>
       </c>
@@ -6804,33 +7000,35 @@
       <c r="N95" s="58"/>
       <c r="O95" s="59"/>
     </row>
-    <row r="96" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="61">
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="C96" s="68"/>
-      <c r="D96" s="63">
+      <c r="D96" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E96" s="62" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F96" s="93">
         <v>42212</v>
       </c>
       <c r="G96" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H96" s="95">
+        <v>241</v>
+      </c>
+      <c r="H96" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I96" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J96" s="66"/>
+      <c r="J96" s="66">
+        <v>7860500</v>
+      </c>
       <c r="K96" s="56">
         <v>0.1</v>
       </c>
@@ -6854,7 +7052,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E97" s="62" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F97" s="93">
         <v>42216</v>
@@ -6869,7 +7067,9 @@
       <c r="I97" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J97" s="66"/>
+      <c r="J97" s="66">
+        <v>35484000</v>
+      </c>
       <c r="K97" s="56">
         <v>0.1</v>
       </c>
@@ -6882,33 +7082,35 @@
       <c r="N97" s="58"/>
       <c r="O97" s="59"/>
     </row>
-    <row r="98" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="61">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="C98" s="68"/>
-      <c r="D98" s="63">
+      <c r="D98" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E98" s="62" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F98" s="93">
         <v>42224</v>
       </c>
       <c r="G98" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H98" s="95">
+        <v>240</v>
+      </c>
+      <c r="H98" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I98" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J98" s="66"/>
+      <c r="J98" s="66">
+        <v>82639900</v>
+      </c>
       <c r="K98" s="56">
         <v>0.1</v>
       </c>
@@ -6921,33 +7123,35 @@
       <c r="N98" s="58"/>
       <c r="O98" s="59"/>
     </row>
-    <row r="99" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="61">
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="C99" s="68"/>
-      <c r="D99" s="63">
+      <c r="D99" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E99" s="62" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F99" s="93">
         <v>42250</v>
       </c>
       <c r="G99" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H99" s="95">
+        <v>240</v>
+      </c>
+      <c r="H99" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I99" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J99" s="66"/>
+      <c r="J99" s="66">
+        <v>111157496</v>
+      </c>
       <c r="K99" s="56">
         <v>0.1</v>
       </c>
@@ -6960,33 +7164,35 @@
       <c r="N99" s="58"/>
       <c r="O99" s="59"/>
     </row>
-    <row r="100" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="61">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="C100" s="68"/>
-      <c r="D100" s="63">
+      <c r="D100" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E100" s="62" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F100" s="93">
         <v>42255</v>
       </c>
       <c r="G100" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H100" s="95">
+        <v>240</v>
+      </c>
+      <c r="H100" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I100" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J100" s="66"/>
+      <c r="J100" s="66">
+        <v>18177160</v>
+      </c>
       <c r="K100" s="56">
         <v>0.1</v>
       </c>
@@ -6999,7 +7205,7 @@
       <c r="N100" s="58"/>
       <c r="O100" s="59"/>
     </row>
-    <row r="101" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="61">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -7010,7 +7216,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E101" s="62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F101" s="93">
         <v>42256</v>
@@ -7025,7 +7231,9 @@
       <c r="I101" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J101" s="66"/>
+      <c r="J101" s="66">
+        <v>13403140</v>
+      </c>
       <c r="K101" s="56">
         <v>0.1</v>
       </c>
@@ -7038,33 +7246,35 @@
       <c r="N101" s="58"/>
       <c r="O101" s="59"/>
     </row>
-    <row r="102" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="61">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="C102" s="68"/>
-      <c r="D102" s="63">
+      <c r="D102" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E102" s="62" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F102" s="93">
         <v>42257</v>
       </c>
       <c r="G102" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H102" s="95">
+        <v>240</v>
+      </c>
+      <c r="H102" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I102" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J102" s="66"/>
+      <c r="J102" s="66">
+        <v>14260000</v>
+      </c>
       <c r="K102" s="56">
         <v>0.1</v>
       </c>
@@ -7077,33 +7287,35 @@
       <c r="N102" s="58"/>
       <c r="O102" s="59"/>
     </row>
-    <row r="103" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="61">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="C103" s="68"/>
-      <c r="D103" s="63">
+      <c r="D103" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E103" s="62" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F103" s="93">
         <v>42260</v>
       </c>
       <c r="G103" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H103" s="95">
+        <v>240</v>
+      </c>
+      <c r="H103" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I103" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J103" s="66"/>
+      <c r="J103" s="66">
+        <v>17311590</v>
+      </c>
       <c r="K103" s="56">
         <v>0.1</v>
       </c>
@@ -7116,7 +7328,7 @@
       <c r="N103" s="58"/>
       <c r="O103" s="59"/>
     </row>
-    <row r="104" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="61">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -7127,7 +7339,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E104" s="62" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F104" s="93">
         <v>42262</v>
@@ -7142,7 +7354,9 @@
       <c r="I104" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J104" s="66"/>
+      <c r="J104" s="66">
+        <v>36815850</v>
+      </c>
       <c r="K104" s="56">
         <v>0.1</v>
       </c>
@@ -7155,7 +7369,7 @@
       <c r="N104" s="58"/>
       <c r="O104" s="59"/>
     </row>
-    <row r="105" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="61">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -7166,7 +7380,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E105" s="62" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F105" s="93">
         <v>42264</v>
@@ -7181,7 +7395,9 @@
       <c r="I105" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J105" s="66"/>
+      <c r="J105" s="66">
+        <v>7982510</v>
+      </c>
       <c r="K105" s="56">
         <v>0.1</v>
       </c>
@@ -7194,33 +7410,35 @@
       <c r="N105" s="58"/>
       <c r="O105" s="59"/>
     </row>
-    <row r="106" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="61">
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="C106" s="68"/>
-      <c r="D106" s="63">
+      <c r="D106" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E106" s="62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F106" s="93">
         <v>42264</v>
       </c>
       <c r="G106" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H106" s="95">
+        <v>240</v>
+      </c>
+      <c r="H106" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I106" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J106" s="66"/>
+      <c r="J106" s="66">
+        <v>13323750</v>
+      </c>
       <c r="K106" s="56">
         <v>0.1</v>
       </c>
@@ -7233,33 +7451,35 @@
       <c r="N106" s="58"/>
       <c r="O106" s="59"/>
     </row>
-    <row r="107" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="61">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="C107" s="68"/>
-      <c r="D107" s="63">
+      <c r="D107" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E107" s="62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F107" s="93">
         <v>42267</v>
       </c>
       <c r="G107" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H107" s="95">
+        <v>240</v>
+      </c>
+      <c r="H107" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I107" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J107" s="66"/>
+      <c r="J107" s="66">
+        <v>17100000</v>
+      </c>
       <c r="K107" s="56">
         <v>0.1</v>
       </c>
@@ -7272,33 +7492,35 @@
       <c r="N107" s="58"/>
       <c r="O107" s="59"/>
     </row>
-    <row r="108" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="61">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="C108" s="68"/>
-      <c r="D108" s="63">
+      <c r="D108" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E108" s="62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F108" s="93">
         <v>42269</v>
       </c>
       <c r="G108" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H108" s="95">
+        <v>240</v>
+      </c>
+      <c r="H108" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I108" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J108" s="66"/>
+      <c r="J108" s="66">
+        <v>13689600</v>
+      </c>
       <c r="K108" s="56">
         <v>0.1</v>
       </c>
@@ -7311,33 +7533,35 @@
       <c r="N108" s="58"/>
       <c r="O108" s="59"/>
     </row>
-    <row r="109" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="61">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="C109" s="68"/>
-      <c r="D109" s="63">
+      <c r="D109" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E109" s="62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F109" s="93">
         <v>42270</v>
       </c>
       <c r="G109" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H109" s="95">
+        <v>241</v>
+      </c>
+      <c r="H109" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I109" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J109" s="66"/>
+      <c r="J109" s="66">
+        <v>12055430</v>
+      </c>
       <c r="K109" s="56">
         <v>0.1</v>
       </c>
@@ -7350,33 +7574,35 @@
       <c r="N109" s="58"/>
       <c r="O109" s="59"/>
     </row>
-    <row r="110" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="61">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="C110" s="68"/>
-      <c r="D110" s="63">
+      <c r="D110" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E110" s="62" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F110" s="93">
         <v>42271</v>
       </c>
       <c r="G110" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H110" s="95">
+        <v>241</v>
+      </c>
+      <c r="H110" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I110" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J110" s="66"/>
+      <c r="J110" s="66">
+        <v>14390855</v>
+      </c>
       <c r="K110" s="56">
         <v>0.1</v>
       </c>
@@ -7389,33 +7615,35 @@
       <c r="N110" s="58"/>
       <c r="O110" s="59"/>
     </row>
-    <row r="111" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="61">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="C111" s="68"/>
-      <c r="D111" s="63">
+      <c r="D111" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E111" s="62" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F111" s="93">
         <v>42271</v>
       </c>
       <c r="G111" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H111" s="95">
+        <v>240</v>
+      </c>
+      <c r="H111" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I111" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J111" s="66"/>
+      <c r="J111" s="66">
+        <v>15161600</v>
+      </c>
       <c r="K111" s="56">
         <v>0.1</v>
       </c>
@@ -7428,7 +7656,7 @@
       <c r="N111" s="58"/>
       <c r="O111" s="59"/>
     </row>
-    <row r="112" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="61">
         <f t="shared" si="6"/>
         <v>95</v>
@@ -7439,7 +7667,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E112" s="62" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F112" s="93">
         <v>42272</v>
@@ -7454,7 +7682,9 @@
       <c r="I112" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J112" s="66"/>
+      <c r="J112" s="66">
+        <v>28226880</v>
+      </c>
       <c r="K112" s="56">
         <v>0.1</v>
       </c>
@@ -7467,33 +7697,35 @@
       <c r="N112" s="58"/>
       <c r="O112" s="59"/>
     </row>
-    <row r="113" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="61">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="C113" s="68"/>
-      <c r="D113" s="63">
+      <c r="D113" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E113" s="62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F113" s="93">
         <v>42272</v>
       </c>
       <c r="G113" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H113" s="95">
+        <v>240</v>
+      </c>
+      <c r="H113" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I113" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J113" s="66"/>
+      <c r="J113" s="66">
+        <v>121389797</v>
+      </c>
       <c r="K113" s="56">
         <v>0.1</v>
       </c>
@@ -7506,7 +7738,7 @@
       <c r="N113" s="58"/>
       <c r="O113" s="59"/>
     </row>
-    <row r="114" spans="2:15" s="37" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:15" s="37" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="61">
         <f t="shared" si="6"/>
         <v>97</v>
@@ -7517,7 +7749,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E114" s="62" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F114" s="93">
         <v>42277</v>
@@ -7532,7 +7764,9 @@
       <c r="I114" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J114" s="66"/>
+      <c r="J114" s="66">
+        <v>4164600</v>
+      </c>
       <c r="K114" s="56">
         <v>0.1</v>
       </c>
@@ -7551,27 +7785,29 @@
         <v>98</v>
       </c>
       <c r="C115" s="68"/>
-      <c r="D115" s="63">
+      <c r="D115" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E115" s="62" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F115" s="93">
         <v>42279</v>
       </c>
       <c r="G115" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H115" s="95">
+        <v>241</v>
+      </c>
+      <c r="H115" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I115" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="J115" s="66"/>
+      <c r="J115" s="66">
+        <v>7265494</v>
+      </c>
       <c r="K115" s="56">
         <v>0.1</v>
       </c>
@@ -7590,27 +7826,29 @@
         <v>99</v>
       </c>
       <c r="C116" s="68"/>
-      <c r="D116" s="63">
+      <c r="D116" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E116" s="62" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F116" s="93">
         <v>42283</v>
       </c>
       <c r="G116" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H116" s="95">
+        <v>240</v>
+      </c>
+      <c r="H116" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I116" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J116" s="66"/>
+      <c r="J116" s="66">
+        <v>29225424</v>
+      </c>
       <c r="K116" s="56">
         <v>0.1</v>
       </c>
@@ -7634,7 +7872,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E117" s="62" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F117" s="93">
         <v>42293</v>
@@ -7647,9 +7885,11 @@
         <v>3603154076</v>
       </c>
       <c r="I117" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="J117" s="66"/>
+        <v>308</v>
+      </c>
+      <c r="J117" s="66">
+        <v>4849122</v>
+      </c>
       <c r="K117" s="56">
         <v>0.1</v>
       </c>
@@ -7668,27 +7908,29 @@
         <v>101</v>
       </c>
       <c r="C118" s="68"/>
-      <c r="D118" s="63">
+      <c r="D118" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>KT/14P</v>
       </c>
       <c r="E118" s="62" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F118" s="93">
         <v>42297</v>
       </c>
       <c r="G118" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H118" s="95">
+        <v>240</v>
+      </c>
+      <c r="H118" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0312948047</v>
       </c>
       <c r="I118" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J118" s="66"/>
+      <c r="J118" s="66">
+        <v>43824494</v>
+      </c>
       <c r="K118" s="56">
         <v>0.1</v>
       </c>
@@ -7712,7 +7954,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E119" s="62" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F119" s="93">
         <v>42300</v>
@@ -7725,9 +7967,11 @@
         <v>3603154076</v>
       </c>
       <c r="I119" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="J119" s="66"/>
+        <v>308</v>
+      </c>
+      <c r="J119" s="66">
+        <v>23023259</v>
+      </c>
       <c r="K119" s="56">
         <v>0.1</v>
       </c>
@@ -7751,7 +7995,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E120" s="62" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F120" s="93">
         <v>42304</v>
@@ -7764,9 +8008,11 @@
         <v>3603154076</v>
       </c>
       <c r="I120" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="J120" s="66"/>
+        <v>308</v>
+      </c>
+      <c r="J120" s="66">
+        <v>17936680</v>
+      </c>
       <c r="K120" s="56">
         <v>0.1</v>
       </c>
@@ -7785,27 +8031,29 @@
         <v>104</v>
       </c>
       <c r="C121" s="68"/>
-      <c r="D121" s="63">
+      <c r="D121" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HP/14P</v>
       </c>
       <c r="E121" s="62" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F121" s="93">
         <v>42304</v>
       </c>
       <c r="G121" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="H121" s="95">
+        <v>241</v>
+      </c>
+      <c r="H121" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3702268691</v>
       </c>
       <c r="I121" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J121" s="66"/>
+      <c r="J121" s="66">
+        <v>12113654</v>
+      </c>
       <c r="K121" s="56">
         <v>0.1</v>
       </c>
@@ -7829,7 +8077,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E122" s="62" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F122" s="93">
         <v>42308</v>
@@ -7842,9 +8090,11 @@
         <v>3603154076</v>
       </c>
       <c r="I122" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="J122" s="66"/>
+        <v>308</v>
+      </c>
+      <c r="J122" s="66">
+        <v>20883594</v>
+      </c>
       <c r="K122" s="56">
         <v>0.1</v>
       </c>
@@ -7868,7 +8118,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E123" s="62" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F123" s="93">
         <v>42312</v>
@@ -7881,9 +8131,11 @@
         <v>3603154076</v>
       </c>
       <c r="I123" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="J123" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="J123" s="66">
+        <v>4463520</v>
+      </c>
       <c r="K123" s="56">
         <v>0.1</v>
       </c>
@@ -7902,27 +8154,29 @@
         <v>107</v>
       </c>
       <c r="C124" s="68"/>
-      <c r="D124" s="63">
+      <c r="D124" s="63" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>HG/15P</v>
       </c>
       <c r="E124" s="62" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F124" s="93">
         <v>42312</v>
       </c>
       <c r="G124" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="H124" s="95">
+        <v>243</v>
+      </c>
+      <c r="H124" s="95" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1101296531</v>
       </c>
       <c r="I124" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="J124" s="66"/>
+        <v>310</v>
+      </c>
+      <c r="J124" s="66">
+        <v>718080</v>
+      </c>
       <c r="K124" s="56">
         <v>0.1</v>
       </c>
@@ -7946,7 +8200,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E125" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F125" s="93">
         <v>42313</v>
@@ -7959,9 +8213,11 @@
         <v>3603154076</v>
       </c>
       <c r="I125" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="J125" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="J125" s="66">
+        <v>13303676</v>
+      </c>
       <c r="K125" s="56">
         <v>0.1</v>
       </c>
@@ -7985,7 +8241,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E126" s="62" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F126" s="93">
         <v>42317</v>
@@ -7998,9 +8254,11 @@
         <v>3603154076</v>
       </c>
       <c r="I126" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="J126" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="J126" s="66">
+        <v>21117389</v>
+      </c>
       <c r="K126" s="56">
         <v>0.1</v>
       </c>
@@ -8024,7 +8282,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E127" s="62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F127" s="93">
         <v>42318</v>
@@ -8037,9 +8295,11 @@
         <v>3603154076</v>
       </c>
       <c r="I127" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="J127" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="J127" s="66">
+        <v>25706895</v>
+      </c>
       <c r="K127" s="56">
         <v>0.1</v>
       </c>
@@ -8058,9 +8318,9 @@
         <v>111</v>
       </c>
       <c r="C128" s="68"/>
-      <c r="D128" s="63">
+      <c r="D128" s="63" t="str">
         <f t="shared" ref="D128:D145" si="10">IF(ISNA(VLOOKUP(G128,DSMV,3,0)),"",VLOOKUP(G128,DSMV,3,0))</f>
-        <v>0</v>
+        <v>VD/14P</v>
       </c>
       <c r="E128" s="62" t="s">
         <v>116</v>
@@ -8069,16 +8329,18 @@
         <v>42321</v>
       </c>
       <c r="G128" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="H128" s="95">
+        <v>244</v>
+      </c>
+      <c r="H128" s="95" t="str">
         <f t="shared" ref="H128:H145" si="11">IF(ISNA(VLOOKUP(G128,DSMV,2,0)),"",VLOOKUP(G128,DSMV,2,0))</f>
-        <v>0</v>
+        <v>0312889289</v>
       </c>
       <c r="I128" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J128" s="66"/>
+      <c r="J128" s="66">
+        <v>88763760</v>
+      </c>
       <c r="K128" s="56">
         <v>0.1</v>
       </c>
@@ -8097,27 +8359,29 @@
         <v>112</v>
       </c>
       <c r="C129" s="68"/>
-      <c r="D129" s="63">
+      <c r="D129" s="63" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>HG/15P</v>
       </c>
       <c r="E129" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F129" s="93">
         <v>42322</v>
       </c>
       <c r="G129" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="H129" s="95">
+        <v>243</v>
+      </c>
+      <c r="H129" s="95" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1101296531</v>
       </c>
       <c r="I129" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J129" s="66"/>
+      <c r="J129" s="66">
+        <v>64551389</v>
+      </c>
       <c r="K129" s="56">
         <v>0.1</v>
       </c>
@@ -8141,7 +8405,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E130" s="62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F130" s="93">
         <v>42324</v>
@@ -8154,9 +8418,11 @@
         <v>3603154076</v>
       </c>
       <c r="I130" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="J130" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="J130" s="66">
+        <v>18227816</v>
+      </c>
       <c r="K130" s="56">
         <v>0.1</v>
       </c>
@@ -8180,7 +8446,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E131" s="62" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F131" s="93">
         <v>42327</v>
@@ -8193,9 +8459,11 @@
         <v>3603154076</v>
       </c>
       <c r="I131" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="J131" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="J131" s="66">
+        <v>12523200</v>
+      </c>
       <c r="K131" s="56">
         <v>0.1</v>
       </c>
@@ -8219,7 +8487,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E132" s="62" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F132" s="93">
         <v>42333</v>
@@ -8232,9 +8500,11 @@
         <v>3603154076</v>
       </c>
       <c r="I132" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="J132" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="J132" s="66">
+        <v>6455740</v>
+      </c>
       <c r="K132" s="56">
         <v>0.1</v>
       </c>
@@ -8258,7 +8528,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E133" s="62" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F133" s="93">
         <v>42343</v>
@@ -8273,7 +8543,9 @@
       <c r="I133" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J133" s="66"/>
+      <c r="J133" s="66">
+        <v>35444754</v>
+      </c>
       <c r="K133" s="56">
         <v>0.1</v>
       </c>
@@ -8297,7 +8569,7 @@
         <v>RY/15P</v>
       </c>
       <c r="E134" s="62" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F134" s="93">
         <v>42344</v>
@@ -8312,7 +8584,9 @@
       <c r="I134" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J134" s="66"/>
+      <c r="J134" s="66">
+        <v>1670200</v>
+      </c>
       <c r="K134" s="56">
         <v>0.1</v>
       </c>
@@ -8336,7 +8610,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E135" s="62" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F135" s="93">
         <v>42347</v>
@@ -8351,7 +8625,9 @@
       <c r="I135" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J135" s="66"/>
+      <c r="J135" s="66">
+        <v>17542000</v>
+      </c>
       <c r="K135" s="56">
         <v>0.1</v>
       </c>
@@ -8372,16 +8648,16 @@
       <c r="C136" s="68"/>
       <c r="D136" s="63" t="str">
         <f t="shared" si="10"/>
-        <v>TL/16P</v>
+        <v>TL/14P</v>
       </c>
       <c r="E136" s="62" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F136" s="93">
         <v>42349</v>
       </c>
       <c r="G136" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H136" s="95" t="str">
         <f t="shared" si="11"/>
@@ -8390,7 +8666,9 @@
       <c r="I136" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J136" s="66"/>
+      <c r="J136" s="66">
+        <v>63078021</v>
+      </c>
       <c r="K136" s="56">
         <v>0.1</v>
       </c>
@@ -8414,7 +8692,7 @@
         <v>RY/15P</v>
       </c>
       <c r="E137" s="62" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F137" s="93">
         <v>42349</v>
@@ -8429,7 +8707,9 @@
       <c r="I137" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J137" s="66"/>
+      <c r="J137" s="66">
+        <v>111150500</v>
+      </c>
       <c r="K137" s="56">
         <v>0.1</v>
       </c>
@@ -8453,7 +8733,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E138" s="62" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F138" s="93">
         <v>42349</v>
@@ -8468,7 +8748,9 @@
       <c r="I138" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J138" s="66"/>
+      <c r="J138" s="66">
+        <v>26702155</v>
+      </c>
       <c r="K138" s="56">
         <v>0.1</v>
       </c>
@@ -8492,7 +8774,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E139" s="62" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F139" s="93">
         <v>42357</v>
@@ -8505,9 +8787,11 @@
         <v>3603154076</v>
       </c>
       <c r="I139" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="J139" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="J139" s="66">
+        <v>5682780</v>
+      </c>
       <c r="K139" s="56">
         <v>0.1</v>
       </c>
@@ -8531,7 +8815,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E140" s="62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F140" s="93">
         <v>42360</v>
@@ -8546,7 +8830,9 @@
       <c r="I140" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J140" s="66"/>
+      <c r="J140" s="66">
+        <v>10029870</v>
+      </c>
       <c r="K140" s="56">
         <v>0.1</v>
       </c>
@@ -8567,25 +8853,27 @@
       <c r="C141" s="68"/>
       <c r="D141" s="63" t="str">
         <f t="shared" si="10"/>
-        <v>TL/16P</v>
+        <v>TL/14P</v>
       </c>
       <c r="E141" s="62" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F141" s="93">
         <v>42363</v>
       </c>
       <c r="G141" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H141" s="95" t="str">
         <f t="shared" si="11"/>
         <v>0312341968</v>
       </c>
       <c r="I141" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="J141" s="66"/>
+        <v>308</v>
+      </c>
+      <c r="J141" s="66">
+        <v>30482900</v>
+      </c>
       <c r="K141" s="56">
         <v>0.1</v>
       </c>
@@ -8606,16 +8894,16 @@
       <c r="C142" s="68"/>
       <c r="D142" s="63" t="str">
         <f t="shared" si="10"/>
-        <v>TL/16P</v>
+        <v>TL/14P</v>
       </c>
       <c r="E142" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F142" s="93">
         <v>42363</v>
       </c>
       <c r="G142" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H142" s="95" t="str">
         <f t="shared" si="11"/>
@@ -8624,7 +8912,9 @@
       <c r="I142" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J142" s="66"/>
+      <c r="J142" s="66">
+        <v>54291100</v>
+      </c>
       <c r="K142" s="56">
         <v>0.1</v>
       </c>
@@ -8648,7 +8938,7 @@
         <v>RY/15P</v>
       </c>
       <c r="E143" s="62" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F143" s="93">
         <v>42366</v>
@@ -8663,7 +8953,9 @@
       <c r="I143" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J143" s="66"/>
+      <c r="J143" s="66">
+        <v>105869500</v>
+      </c>
       <c r="K143" s="56">
         <v>0.1</v>
       </c>
@@ -8687,7 +8979,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E144" s="62" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F144" s="93">
         <v>42367</v>
@@ -8702,7 +8994,9 @@
       <c r="I144" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J144" s="66"/>
+      <c r="J144" s="66">
+        <v>34491200</v>
+      </c>
       <c r="K144" s="56">
         <v>0.1</v>
       </c>
@@ -8726,7 +9020,7 @@
         <v>NN/14P</v>
       </c>
       <c r="E145" s="62" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F145" s="93">
         <v>42369</v>
@@ -8741,7 +9035,9 @@
       <c r="I145" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J145" s="66"/>
+      <c r="J145" s="66">
+        <v>34902365</v>
+      </c>
       <c r="K145" s="56">
         <v>0.1</v>
       </c>
@@ -8783,12 +9079,12 @@
       <c r="I147" s="72"/>
       <c r="J147" s="74">
         <f>SUBTOTAL(9,J18:J146)</f>
-        <v>188765182</v>
+        <v>1091592826</v>
       </c>
       <c r="K147" s="74"/>
       <c r="L147" s="74">
-        <f>SUBTOTAL(9,L18:L146)</f>
-        <v>211485672</v>
+        <f t="shared" ref="L147" si="12">SUBTOTAL(9,L18:L146)</f>
+        <v>109151424</v>
       </c>
       <c r="M147" s="72"/>
       <c r="N147" s="59"/>
@@ -9010,7 +9306,7 @@
       <c r="G161" s="38"/>
       <c r="H161" s="115">
         <f>J147</f>
-        <v>188765182</v>
+        <v>1091592826</v>
       </c>
       <c r="I161" s="38"/>
       <c r="K161" s="40"/>
@@ -9025,7 +9321,7 @@
       <c r="G162" s="38"/>
       <c r="H162" s="115">
         <f>L147</f>
-        <v>211485672</v>
+        <v>109151424</v>
       </c>
       <c r="I162" s="38"/>
       <c r="K162" s="40"/>
@@ -9056,7 +9352,7 @@
       <c r="I164" s="38"/>
       <c r="J164" s="120" t="str">
         <f>"Bình Dương, "&amp;IF($O$15=1,"Ngày 31 Tháng 03  ",IF($O$15=2,"Ngày 30 Tháng 06  ",IF($O$15=3,"Ngày 30 Tháng 09  ",IF($O$15=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F145)</f>
-        <v>Bình Dương, Ngày 31 Tháng 03  Năm  2015</v>
+        <v>Bình Dương, Ngày 31 Tháng 12  Năm  2015</v>
       </c>
       <c r="N164" s="59"/>
     </row>
@@ -9104,22 +9400,28 @@
       <c r="M168" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A16:O146"/>
+  <autoFilter ref="A17:Q145">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="14">
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B12:M12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0"/>
@@ -9132,15 +9434,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9151,9 +9453,9 @@
     <col min="4" max="4" width="10.5703125" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="15" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" style="15" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20" style="15" customWidth="1"/>
     <col min="10" max="11" width="15.5703125" style="15" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="15" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="15"/>
@@ -9193,66 +9495,66 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="147" t="str">
+      <c r="B7" s="146" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;N15&amp;" Năm "&amp;YEAR(F27)</f>
-        <v>Kỳ tính thuế: Quý 1 Năm 2015</v>
-      </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
+        <v>Kỳ tính thuế: Quý 4 Năm 2015</v>
+      </c>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -9267,12 +9569,12 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -9287,62 +9589,62 @@
       <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="140" t="s">
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="140" t="s">
+      <c r="H13" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="140" t="s">
+      <c r="J13" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="140" t="s">
+      <c r="K13" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="140" t="s">
+      <c r="L13" s="139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="140"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
     </row>
     <row r="15" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="140"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
@@ -9355,14 +9657,14 @@
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="N15" s="177">
-        <v>1</v>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="N15" s="125">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -9401,16 +9703,16 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
@@ -9444,16 +9746,16 @@
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="26"/>
@@ -9487,16 +9789,16 @@
       <c r="L22" s="24"/>
     </row>
     <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="26"/>
@@ -9530,21 +9832,21 @@
       <c r="L25" s="24"/>
     </row>
     <row r="26" spans="2:12" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <f>IF(G27&lt;&gt;"",ROW()-26,"")</f>
         <v>1</v>
@@ -9556,7 +9858,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F27" s="34">
         <v>42013</v>
@@ -9571,7 +9873,9 @@
       <c r="I27" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J27" s="14"/>
+      <c r="J27" s="14">
+        <v>1911000</v>
+      </c>
       <c r="K27" s="14">
         <v>191100</v>
       </c>
@@ -9579,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <f t="shared" ref="B28:B51" si="1">IF(G28&lt;&gt;"",ROW()-26,"")</f>
         <v>2</v>
@@ -9591,23 +9895,22 @@
         <v>86</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F28" s="34">
         <v>42013</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="H28" s="35">
+        <v>470</v>
+      </c>
+      <c r="H28" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0302907556</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J28" s="14">
-        <f>K28*10</f>
         <v>546000</v>
       </c>
       <c r="K28" s="14">
@@ -9617,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -9629,23 +9932,22 @@
         <v>86</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F29" s="34">
         <v>42018</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="H29" s="35">
+        <v>471</v>
+      </c>
+      <c r="H29" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2901274715</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J29" s="14">
-        <f>K29*10</f>
         <v>1700000</v>
       </c>
       <c r="K29" s="14">
@@ -9655,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9667,7 +9969,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F30" s="34">
         <v>42021</v>
@@ -9682,7 +9984,9 @@
       <c r="I30" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J30" s="14"/>
+      <c r="J30" s="14">
+        <v>8420150</v>
+      </c>
       <c r="K30" s="14">
         <v>842015</v>
       </c>
@@ -9690,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9702,7 +10006,7 @@
         <v>86</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F31" s="34">
         <v>42027</v>
@@ -9717,7 +10021,9 @@
       <c r="I31" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="14"/>
+      <c r="J31" s="14">
+        <v>13108000</v>
+      </c>
       <c r="K31" s="14">
         <v>1310800</v>
       </c>
@@ -9725,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9737,7 +10043,7 @@
         <v>86</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F32" s="34">
         <v>42028</v>
@@ -9752,7 +10058,9 @@
       <c r="I32" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J32" s="14"/>
+      <c r="J32" s="14">
+        <v>1025400</v>
+      </c>
       <c r="K32" s="14">
         <v>102540</v>
       </c>
@@ -9760,7 +10068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9787,7 +10095,9 @@
       <c r="I33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="14"/>
+      <c r="J33" s="14">
+        <v>4360800</v>
+      </c>
       <c r="K33" s="14">
         <v>436080</v>
       </c>
@@ -9795,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9807,22 +10117,24 @@
         <v>86</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F34" s="34">
         <v>42031</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="H34" s="35">
+        <v>472</v>
+      </c>
+      <c r="H34" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0312947639</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="14"/>
+      <c r="J34" s="14">
+        <v>1854000</v>
+      </c>
       <c r="K34" s="14">
         <v>185400</v>
       </c>
@@ -9830,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9842,7 +10154,7 @@
         <v>86</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F35" s="34">
         <v>42034</v>
@@ -9857,7 +10169,9 @@
       <c r="I35" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J35" s="14"/>
+      <c r="J35" s="14">
+        <v>25126400</v>
+      </c>
       <c r="K35" s="14">
         <v>2512640</v>
       </c>
@@ -9865,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9883,7 +10197,7 @@
         <v>42035</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H36" s="35" t="str">
         <f t="shared" si="0"/>
@@ -9893,7 +10207,6 @@
         <v>88</v>
       </c>
       <c r="J36" s="14">
-        <f>K36*10</f>
         <v>8600000</v>
       </c>
       <c r="K36" s="14">
@@ -9903,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9915,7 +10228,7 @@
         <v>86</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F37" s="34">
         <v>42041</v>
@@ -9930,7 +10243,9 @@
       <c r="I37" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="14"/>
+      <c r="J37" s="14">
+        <v>26815800</v>
+      </c>
       <c r="K37" s="14">
         <v>2681580</v>
       </c>
@@ -9938,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9950,13 +10265,13 @@
         <v>86</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F38" s="34">
         <v>42050</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H38" s="35" t="str">
         <f t="shared" si="0"/>
@@ -9966,7 +10281,6 @@
         <v>88</v>
       </c>
       <c r="J38" s="14">
-        <f>K38*10</f>
         <v>2000000</v>
       </c>
       <c r="K38" s="14">
@@ -9976,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -9988,7 +10302,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F39" s="34">
         <v>42071</v>
@@ -10003,7 +10317,9 @@
       <c r="I39" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="14">
+        <v>1840000</v>
+      </c>
       <c r="K39" s="14">
         <v>184000</v>
       </c>
@@ -10011,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -10023,22 +10339,24 @@
         <v>86</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F40" s="34">
         <v>42079</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="H40" s="35">
+        <v>473</v>
+      </c>
+      <c r="H40" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3700838339</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J40" s="14"/>
+      <c r="J40" s="14">
+        <v>4020000</v>
+      </c>
       <c r="K40" s="14">
         <v>402000</v>
       </c>
@@ -10046,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -10073,7 +10391,9 @@
       <c r="I41" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="14"/>
+      <c r="J41" s="14">
+        <v>5424000</v>
+      </c>
       <c r="K41" s="14">
         <v>542400</v>
       </c>
@@ -10081,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -10093,7 +10413,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F42" s="34">
         <v>42083</v>
@@ -10108,7 +10428,9 @@
       <c r="I42" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J42" s="14"/>
+      <c r="J42" s="14">
+        <v>1617000</v>
+      </c>
       <c r="K42" s="14">
         <v>161700</v>
       </c>
@@ -10116,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -10128,13 +10450,13 @@
         <v>86</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F43" s="34">
         <v>42093</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H43" s="35" t="str">
         <f t="shared" si="0"/>
@@ -10144,7 +10466,6 @@
         <v>88</v>
       </c>
       <c r="J43" s="14">
-        <f>K43*10</f>
         <v>15200000</v>
       </c>
       <c r="K43" s="14">
@@ -10154,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -10166,7 +10487,7 @@
         <v>86</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F44" s="34">
         <v>42093</v>
@@ -10181,7 +10502,9 @@
       <c r="I44" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J44" s="14"/>
+      <c r="J44" s="14">
+        <v>18000000</v>
+      </c>
       <c r="K44" s="14">
         <v>1800000</v>
       </c>
@@ -10189,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -10216,7 +10539,9 @@
       <c r="I45" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J45" s="14"/>
+      <c r="J45" s="14">
+        <v>17010000</v>
+      </c>
       <c r="K45" s="14">
         <v>1701000</v>
       </c>
@@ -10224,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -10236,22 +10561,24 @@
         <v>86</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F46" s="34">
         <v>42097</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="H46" s="35">
+        <v>473</v>
+      </c>
+      <c r="H46" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3700838339</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J46" s="14"/>
+      <c r="J46" s="14">
+        <v>25464000</v>
+      </c>
       <c r="K46" s="14">
         <v>2546400</v>
       </c>
@@ -10259,7 +10586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -10271,22 +10598,24 @@
         <v>86</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F47" s="34">
         <v>42097</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="H47" s="35">
+        <v>473</v>
+      </c>
+      <c r="H47" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3700838339</v>
       </c>
       <c r="I47" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="14"/>
+      <c r="J47" s="14">
+        <v>145600</v>
+      </c>
       <c r="K47" s="14">
         <v>14560</v>
       </c>
@@ -10294,7 +10623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -10306,7 +10635,7 @@
         <v>86</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F48" s="34">
         <v>42100</v>
@@ -10321,7 +10650,9 @@
       <c r="I48" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J48" s="14"/>
+      <c r="J48" s="14">
+        <v>9753000</v>
+      </c>
       <c r="K48" s="14">
         <v>975300</v>
       </c>
@@ -10329,7 +10660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -10341,7 +10672,7 @@
         <v>86</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F49" s="34">
         <v>42108</v>
@@ -10356,7 +10687,9 @@
       <c r="I49" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J49" s="14"/>
+      <c r="J49" s="14">
+        <v>12125800</v>
+      </c>
       <c r="K49" s="14">
         <v>1212580</v>
       </c>
@@ -10364,7 +10697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -10376,13 +10709,13 @@
         <v>86</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F50" s="34">
         <v>42114</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H50" s="35" t="str">
         <f t="shared" si="0"/>
@@ -10392,7 +10725,6 @@
         <v>88</v>
       </c>
       <c r="J50" s="14">
-        <f>K50*10</f>
         <v>4600000</v>
       </c>
       <c r="K50" s="14">
@@ -10402,7 +10734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -10414,13 +10746,13 @@
         <v>86</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F51" s="34">
         <v>42131</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H51" s="35" t="str">
         <f t="shared" si="0"/>
@@ -10429,7 +10761,9 @@
       <c r="I51" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J51" s="14"/>
+      <c r="J51" s="14">
+        <v>7400000</v>
+      </c>
       <c r="K51" s="14">
         <v>740000</v>
       </c>
@@ -10437,7 +10771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10">
         <f t="shared" ref="B52:B115" si="2">IF(G52&lt;&gt;"",ROW()-26,"")</f>
         <v>26</v>
@@ -10449,23 +10783,22 @@
         <v>86</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F52" s="34">
         <v>42137</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="H52" s="35">
+        <v>474</v>
+      </c>
+      <c r="H52" s="35" t="str">
         <f t="shared" ref="H52:H115" si="3">IF(ISNA(VLOOKUP(G52,DSBR,2,0)),"",VLOOKUP(G52,DSBR,2,0))</f>
-        <v>0</v>
+        <v>0310585704</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" ref="J52:J53" si="4">K52*10</f>
         <v>15000000</v>
       </c>
       <c r="K52" s="14">
@@ -10475,7 +10808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -10487,13 +10820,13 @@
         <v>86</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F53" s="34">
         <v>42149</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H53" s="35" t="str">
         <f t="shared" si="3"/>
@@ -10503,7 +10836,6 @@
         <v>88</v>
       </c>
       <c r="J53" s="14">
-        <f t="shared" si="4"/>
         <v>15000000</v>
       </c>
       <c r="K53" s="14">
@@ -10513,7 +10845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -10525,22 +10857,24 @@
         <v>86</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F54" s="34">
         <v>42158</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="H54" s="35">
+        <v>475</v>
+      </c>
+      <c r="H54" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3700426550</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J54" s="14"/>
+      <c r="J54" s="14">
+        <v>5650000</v>
+      </c>
       <c r="K54" s="14">
         <v>565000</v>
       </c>
@@ -10548,7 +10882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -10566,16 +10900,18 @@
         <v>42170</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H55" s="35" t="str">
         <f t="shared" si="3"/>
         <v>3700603175</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J55" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J55" s="14">
+        <v>2160000</v>
+      </c>
       <c r="K55" s="14">
         <v>216000</v>
       </c>
@@ -10583,7 +10919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -10595,7 +10931,7 @@
         <v>86</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F56" s="34">
         <v>42175</v>
@@ -10610,7 +10946,9 @@
       <c r="I56" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J56" s="14"/>
+      <c r="J56" s="14">
+        <v>5358000</v>
+      </c>
       <c r="K56" s="14">
         <v>535800</v>
       </c>
@@ -10618,7 +10956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -10630,7 +10968,7 @@
         <v>86</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F57" s="34">
         <v>42181</v>
@@ -10645,7 +10983,9 @@
       <c r="I57" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J57" s="14"/>
+      <c r="J57" s="14">
+        <v>12288000</v>
+      </c>
       <c r="K57" s="14">
         <v>1228800</v>
       </c>
@@ -10653,7 +10993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="10">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -10665,7 +11005,7 @@
         <v>86</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F58" s="34">
         <v>42181</v>
@@ -10680,7 +11020,9 @@
       <c r="I58" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J58" s="14"/>
+      <c r="J58" s="14">
+        <v>5251000</v>
+      </c>
       <c r="K58" s="14">
         <v>525100</v>
       </c>
@@ -10688,7 +11030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -10700,7 +11042,7 @@
         <v>86</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F59" s="34">
         <v>42185</v>
@@ -10715,7 +11057,9 @@
       <c r="I59" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J59" s="14"/>
+      <c r="J59" s="14">
+        <v>5800100</v>
+      </c>
       <c r="K59" s="14">
         <v>580010</v>
       </c>
@@ -10723,7 +11067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -10735,13 +11079,13 @@
         <v>86</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F60" s="34">
         <v>42185</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H60" s="35" t="str">
         <f t="shared" si="3"/>
@@ -10751,7 +11095,6 @@
         <v>88</v>
       </c>
       <c r="J60" s="14">
-        <f>K60*10</f>
         <v>8500000</v>
       </c>
       <c r="K60" s="14">
@@ -10761,7 +11104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -10773,7 +11116,7 @@
         <v>86</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F61" s="34">
         <v>42185</v>
@@ -10786,9 +11129,11 @@
         <v>3702196486</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J61" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J61" s="14">
+        <v>16873000</v>
+      </c>
       <c r="K61" s="14">
         <v>1687300</v>
       </c>
@@ -10796,7 +11141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -10808,7 +11153,7 @@
         <v>86</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F62" s="34">
         <v>42185</v>
@@ -10821,9 +11166,11 @@
         <v>3702196486</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J62" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J62" s="14">
+        <v>17546800</v>
+      </c>
       <c r="K62" s="14">
         <v>1754680</v>
       </c>
@@ -10831,7 +11178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -10843,7 +11190,7 @@
         <v>86</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F63" s="34">
         <v>42185</v>
@@ -10856,9 +11203,11 @@
         <v>3702196486</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J63" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J63" s="14">
+        <v>17099350</v>
+      </c>
       <c r="K63" s="14">
         <v>1709935</v>
       </c>
@@ -10866,7 +11215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -10878,7 +11227,7 @@
         <v>86</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F64" s="34">
         <v>42185</v>
@@ -10891,9 +11240,11 @@
         <v>3702196486</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J64" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J64" s="14">
+        <v>17785360</v>
+      </c>
       <c r="K64" s="14">
         <v>1778536</v>
       </c>
@@ -10901,7 +11252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -10913,7 +11264,7 @@
         <v>86</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F65" s="34">
         <v>42185</v>
@@ -10926,9 +11277,11 @@
         <v>3702196486</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J65" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J65" s="14">
+        <v>16568500</v>
+      </c>
       <c r="K65" s="14">
         <v>1656850</v>
       </c>
@@ -10936,7 +11289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -10948,7 +11301,7 @@
         <v>86</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F66" s="34">
         <v>42185</v>
@@ -10961,9 +11314,11 @@
         <v>3702196486</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J66" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J66" s="14">
+        <v>17157455</v>
+      </c>
       <c r="K66" s="14">
         <v>1715746</v>
       </c>
@@ -10971,7 +11326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -10983,7 +11338,7 @@
         <v>86</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F67" s="34">
         <v>42185</v>
@@ -10996,9 +11351,11 @@
         <v>3702196486</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J67" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J67" s="14">
+        <v>17591400</v>
+      </c>
       <c r="K67" s="14">
         <v>1759140</v>
       </c>
@@ -11006,7 +11363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -11018,7 +11375,7 @@
         <v>86</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F68" s="34">
         <v>42185</v>
@@ -11031,9 +11388,11 @@
         <v>3702196486</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J68" s="14"/>
+        <v>500</v>
+      </c>
+      <c r="J68" s="14">
+        <v>9516110</v>
+      </c>
       <c r="K68" s="14">
         <v>951611</v>
       </c>
@@ -11041,7 +11400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -11053,13 +11412,13 @@
         <v>86</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F69" s="34">
         <v>42185</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H69" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11068,7 +11427,9 @@
       <c r="I69" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J69" s="14"/>
+      <c r="J69" s="14">
+        <v>1865000</v>
+      </c>
       <c r="K69" s="14">
         <v>186500</v>
       </c>
@@ -11076,7 +11437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -11088,22 +11449,24 @@
         <v>86</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F70" s="34">
         <v>42205</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="H70" s="35">
+        <v>477</v>
+      </c>
+      <c r="H70" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3500662705</v>
       </c>
       <c r="I70" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J70" s="14"/>
+      <c r="J70" s="14">
+        <v>300000</v>
+      </c>
       <c r="K70" s="14">
         <v>30000</v>
       </c>
@@ -11111,7 +11474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -11123,13 +11486,13 @@
         <v>86</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F71" s="34">
         <v>42206</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H71" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11139,7 +11502,6 @@
         <v>88</v>
       </c>
       <c r="J71" s="14">
-        <f>K71*10</f>
         <v>9500000</v>
       </c>
       <c r="K71" s="14">
@@ -11149,7 +11511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -11161,13 +11523,13 @@
         <v>86</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F72" s="34">
         <v>42219</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H72" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11176,7 +11538,9 @@
       <c r="I72" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J72" s="14"/>
+      <c r="J72" s="14">
+        <v>44000000</v>
+      </c>
       <c r="K72" s="14">
         <v>4400000</v>
       </c>
@@ -11184,7 +11548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -11196,13 +11560,13 @@
         <v>86</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F73" s="34">
         <v>42224</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H73" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11211,7 +11575,9 @@
       <c r="I73" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J73" s="14"/>
+      <c r="J73" s="14">
+        <v>5250000</v>
+      </c>
       <c r="K73" s="14">
         <v>525000</v>
       </c>
@@ -11219,7 +11585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -11231,13 +11597,13 @@
         <v>86</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F74" s="34">
         <v>42226</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H74" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11246,7 +11612,9 @@
       <c r="I74" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J74" s="14"/>
+      <c r="J74" s="14">
+        <v>16250000</v>
+      </c>
       <c r="K74" s="14">
         <v>1625000</v>
       </c>
@@ -11254,7 +11622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -11266,13 +11634,13 @@
         <v>86</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F75" s="34">
         <v>42228</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H75" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11281,7 +11649,9 @@
       <c r="I75" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J75" s="14"/>
+      <c r="J75" s="14">
+        <v>15850000</v>
+      </c>
       <c r="K75" s="14">
         <v>1585000</v>
       </c>
@@ -11289,7 +11659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -11301,13 +11671,13 @@
         <v>86</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F76" s="34">
         <v>42231</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H76" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11316,7 +11686,9 @@
       <c r="I76" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J76" s="14"/>
+      <c r="J76" s="14">
+        <v>15000000</v>
+      </c>
       <c r="K76" s="14">
         <v>1500000</v>
       </c>
@@ -11324,7 +11696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="10">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -11336,13 +11708,13 @@
         <v>86</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F77" s="34">
         <v>42233</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H77" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11351,7 +11723,9 @@
       <c r="I77" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J77" s="14"/>
+      <c r="J77" s="14">
+        <v>16500000</v>
+      </c>
       <c r="K77" s="14">
         <v>1650000</v>
       </c>
@@ -11359,7 +11733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="10">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -11371,13 +11745,13 @@
         <v>86</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F78" s="34">
         <v>42234</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H78" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11387,7 +11761,6 @@
         <v>88</v>
       </c>
       <c r="J78" s="14">
-        <f>K78*10</f>
         <v>18000000</v>
       </c>
       <c r="K78" s="14">
@@ -11397,7 +11770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="10">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -11409,13 +11782,13 @@
         <v>86</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F79" s="34">
         <v>42237</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H79" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11424,7 +11797,9 @@
       <c r="I79" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J79" s="14"/>
+      <c r="J79" s="14">
+        <v>8250000</v>
+      </c>
       <c r="K79" s="14">
         <v>825000</v>
       </c>
@@ -11432,7 +11807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="10">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -11444,13 +11819,13 @@
         <v>86</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F80" s="34">
         <v>42239</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H80" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11460,7 +11835,6 @@
         <v>88</v>
       </c>
       <c r="J80" s="14">
-        <f>K80*10</f>
         <v>17500000</v>
       </c>
       <c r="K80" s="14">
@@ -11470,7 +11844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="10">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -11482,22 +11856,24 @@
         <v>86</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F81" s="34">
         <v>42240</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="H81" s="35">
+        <v>480</v>
+      </c>
+      <c r="H81" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0312544728</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J81" s="14"/>
+      <c r="J81" s="14">
+        <v>14310000</v>
+      </c>
       <c r="K81" s="14">
         <v>1431000</v>
       </c>
@@ -11505,7 +11881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="10">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -11517,13 +11893,13 @@
         <v>86</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F82" s="34">
         <v>42241</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H82" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11533,7 +11909,6 @@
         <v>88</v>
       </c>
       <c r="J82" s="14">
-        <f t="shared" ref="J82:J83" si="5">K82*10</f>
         <v>18050000</v>
       </c>
       <c r="K82" s="14">
@@ -11543,7 +11918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -11555,13 +11930,13 @@
         <v>86</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F83" s="34">
         <v>42241</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H83" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11571,7 +11946,6 @@
         <v>88</v>
       </c>
       <c r="J83" s="14">
-        <f t="shared" si="5"/>
         <v>11800000</v>
       </c>
       <c r="K83" s="14">
@@ -11581,7 +11955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="10">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -11593,22 +11967,24 @@
         <v>86</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F84" s="34">
         <v>42248</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="H84" s="35">
+        <v>481</v>
+      </c>
+      <c r="H84" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3702314958</v>
       </c>
       <c r="I84" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J84" s="14"/>
+      <c r="J84" s="14">
+        <v>1330000</v>
+      </c>
       <c r="K84" s="14">
         <v>133000</v>
       </c>
@@ -11616,7 +11992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="10">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -11628,22 +12004,24 @@
         <v>86</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F85" s="34">
         <v>42259</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="H85" s="35">
+        <v>482</v>
+      </c>
+      <c r="H85" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0313185447</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J85" s="14"/>
+      <c r="J85" s="14">
+        <v>1200000</v>
+      </c>
       <c r="K85" s="14">
         <v>120000</v>
       </c>
@@ -11651,7 +12029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="10">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -11663,13 +12041,13 @@
         <v>86</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F86" s="34">
         <v>42259</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H86" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11678,7 +12056,9 @@
       <c r="I86" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J86" s="14"/>
+      <c r="J86" s="14">
+        <v>12340000</v>
+      </c>
       <c r="K86" s="14">
         <v>1234000</v>
       </c>
@@ -11686,7 +12066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -11698,22 +12078,24 @@
         <v>86</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F87" s="34">
         <v>42261</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="H87" s="35">
+        <v>481</v>
+      </c>
+      <c r="H87" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3702314958</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J87" s="14"/>
+      <c r="J87" s="14">
+        <v>1330000</v>
+      </c>
       <c r="K87" s="14">
         <v>133000</v>
       </c>
@@ -11721,7 +12103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -11733,22 +12115,24 @@
         <v>86</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F88" s="34">
         <v>42262</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="H88" s="35">
+        <v>483</v>
+      </c>
+      <c r="H88" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0302271510</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J88" s="14"/>
+      <c r="J88" s="14">
+        <v>27820535</v>
+      </c>
       <c r="K88" s="14">
         <v>2782054</v>
       </c>
@@ -11756,7 +12140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="10">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -11768,13 +12152,13 @@
         <v>86</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F89" s="34">
         <v>42262</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H89" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11783,7 +12167,9 @@
       <c r="I89" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J89" s="14"/>
+      <c r="J89" s="14">
+        <v>17715000</v>
+      </c>
       <c r="K89" s="14">
         <v>1771500</v>
       </c>
@@ -11791,7 +12177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="10">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -11803,13 +12189,13 @@
         <v>86</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F90" s="34">
         <v>42264</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H90" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11819,7 +12205,6 @@
         <v>88</v>
       </c>
       <c r="J90" s="14">
-        <f t="shared" ref="J90:J91" si="6">K90*10</f>
         <v>18000000</v>
       </c>
       <c r="K90" s="14">
@@ -11829,7 +12214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="10">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -11841,13 +12226,13 @@
         <v>86</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F91" s="34">
         <v>42265</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H91" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11857,7 +12242,6 @@
         <v>88</v>
       </c>
       <c r="J91" s="14">
-        <f t="shared" si="6"/>
         <v>2100000</v>
       </c>
       <c r="K91" s="14">
@@ -11867,7 +12251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="10">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -11879,13 +12263,13 @@
         <v>86</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F92" s="34">
         <v>42265</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H92" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11894,7 +12278,9 @@
       <c r="I92" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J92" s="14"/>
+      <c r="J92" s="14">
+        <v>33750000</v>
+      </c>
       <c r="K92" s="14">
         <v>3375000</v>
       </c>
@@ -11902,7 +12288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="10">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -11914,22 +12300,24 @@
         <v>86</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F93" s="34">
         <v>42266</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="H93" s="35">
+        <v>483</v>
+      </c>
+      <c r="H93" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0302271510</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J93" s="14"/>
+      <c r="J93" s="14">
+        <v>16303600</v>
+      </c>
       <c r="K93" s="14">
         <v>1630360</v>
       </c>
@@ -11937,7 +12325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -11949,13 +12337,13 @@
         <v>86</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F94" s="34">
         <v>42266</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H94" s="35" t="str">
         <f t="shared" si="3"/>
@@ -11964,7 +12352,9 @@
       <c r="I94" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J94" s="14"/>
+      <c r="J94" s="14">
+        <v>12000000</v>
+      </c>
       <c r="K94" s="14">
         <v>1200000</v>
       </c>
@@ -11972,7 +12362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="10">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -11984,22 +12374,24 @@
         <v>86</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F95" s="34">
         <v>42267</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="H95" s="35">
+        <v>472</v>
+      </c>
+      <c r="H95" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0312947639</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J95" s="14"/>
+      <c r="J95" s="14">
+        <v>1400000</v>
+      </c>
       <c r="K95" s="14">
         <v>140000</v>
       </c>
@@ -12007,7 +12399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="10">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -12019,22 +12411,24 @@
         <v>86</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F96" s="34">
         <v>42267</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="H96" s="35">
+        <v>485</v>
+      </c>
+      <c r="H96" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3702375090</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J96" s="14"/>
+      <c r="J96" s="14">
+        <v>46860000</v>
+      </c>
       <c r="K96" s="14">
         <v>4686000</v>
       </c>
@@ -12042,7 +12436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="10">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -12054,13 +12448,13 @@
         <v>86</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F97" s="34">
         <v>42268</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H97" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12069,7 +12463,9 @@
       <c r="I97" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J97" s="14"/>
+      <c r="J97" s="14">
+        <v>16500000</v>
+      </c>
       <c r="K97" s="14">
         <v>1650000</v>
       </c>
@@ -12077,7 +12473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="10">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -12089,13 +12485,13 @@
         <v>86</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F98" s="34">
         <v>42269</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H98" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12104,7 +12500,9 @@
       <c r="I98" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J98" s="14"/>
+      <c r="J98" s="14">
+        <v>17539000</v>
+      </c>
       <c r="K98" s="14">
         <v>1753900</v>
       </c>
@@ -12112,7 +12510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="10">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -12124,13 +12522,13 @@
         <v>86</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F99" s="34">
         <v>42269</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H99" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12140,7 +12538,6 @@
         <v>88</v>
       </c>
       <c r="J99" s="14">
-        <f t="shared" ref="J99:J100" si="7">K99*10</f>
         <v>8300000</v>
       </c>
       <c r="K99" s="14">
@@ -12150,7 +12547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -12162,13 +12559,13 @@
         <v>86</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F100" s="34">
         <v>42270</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H100" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12178,7 +12575,6 @@
         <v>88</v>
       </c>
       <c r="J100" s="14">
-        <f t="shared" si="7"/>
         <v>17500000</v>
       </c>
       <c r="K100" s="14">
@@ -12188,7 +12584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="10">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -12200,7 +12596,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F101" s="34">
         <v>42271</v>
@@ -12215,7 +12611,9 @@
       <c r="I101" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J101" s="14"/>
+      <c r="J101" s="14">
+        <v>12390000</v>
+      </c>
       <c r="K101" s="14">
         <v>1239000</v>
       </c>
@@ -12223,7 +12621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="10">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -12235,13 +12633,13 @@
         <v>86</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F102" s="34">
         <v>42272</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H102" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12250,7 +12648,9 @@
       <c r="I102" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J102" s="14"/>
+      <c r="J102" s="14">
+        <v>17675000</v>
+      </c>
       <c r="K102" s="14">
         <v>1767500</v>
       </c>
@@ -12258,7 +12658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="10">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -12270,13 +12670,13 @@
         <v>86</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F103" s="34">
         <v>42273</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H103" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12285,7 +12685,9 @@
       <c r="I103" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J103" s="14"/>
+      <c r="J103" s="14">
+        <v>8492000</v>
+      </c>
       <c r="K103" s="14">
         <v>849200</v>
       </c>
@@ -12293,7 +12695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -12305,22 +12707,24 @@
         <v>86</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F104" s="34">
         <v>42274</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="H104" s="35">
+        <v>487</v>
+      </c>
+      <c r="H104" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3700664957</v>
       </c>
       <c r="I104" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J104" s="14"/>
+      <c r="J104" s="14">
+        <v>3550500</v>
+      </c>
       <c r="K104" s="14">
         <v>355050</v>
       </c>
@@ -12328,7 +12732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -12340,13 +12744,13 @@
         <v>86</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F105" s="34">
         <v>42275</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H105" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12355,7 +12759,9 @@
       <c r="I105" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J105" s="14"/>
+      <c r="J105" s="14">
+        <v>11550000</v>
+      </c>
       <c r="K105" s="14">
         <v>1155000</v>
       </c>
@@ -12363,7 +12769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -12375,7 +12781,7 @@
         <v>86</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F106" s="34">
         <v>42276</v>
@@ -12390,7 +12796,9 @@
       <c r="I106" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J106" s="14"/>
+      <c r="J106" s="14">
+        <v>6991665</v>
+      </c>
       <c r="K106" s="14">
         <v>699166</v>
       </c>
@@ -12398,7 +12806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="10">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -12410,13 +12818,13 @@
         <v>86</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F107" s="34">
         <v>42277</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H107" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12426,7 +12834,6 @@
         <v>88</v>
       </c>
       <c r="J107" s="14">
-        <f>K107*10</f>
         <v>18050000</v>
       </c>
       <c r="K107" s="14">
@@ -12448,22 +12855,24 @@
         <v>86</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F108" s="34">
         <v>42282</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="H108" s="35">
+        <v>481</v>
+      </c>
+      <c r="H108" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3702314958</v>
       </c>
       <c r="I108" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J108" s="14"/>
+      <c r="J108" s="14">
+        <v>2660000</v>
+      </c>
       <c r="K108" s="14">
         <v>266000</v>
       </c>
@@ -12483,22 +12892,24 @@
         <v>86</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F109" s="34">
         <v>42283</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="H109" s="35">
+        <v>488</v>
+      </c>
+      <c r="H109" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3502281624</v>
       </c>
       <c r="I109" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J109" s="14"/>
+      <c r="J109" s="14">
+        <v>18000000</v>
+      </c>
       <c r="K109" s="14">
         <v>1800000</v>
       </c>
@@ -12518,13 +12929,13 @@
         <v>86</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F110" s="34">
         <v>42283</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H110" s="35">
         <f t="shared" si="3"/>
@@ -12534,7 +12945,6 @@
         <v>88</v>
       </c>
       <c r="J110" s="14">
-        <f>K110*10</f>
         <v>15000000</v>
       </c>
       <c r="K110" s="14">
@@ -12556,22 +12966,24 @@
         <v>86</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F111" s="34">
         <v>42284</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="H111" s="35">
+        <v>483</v>
+      </c>
+      <c r="H111" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0302271510</v>
       </c>
       <c r="I111" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J111" s="14"/>
+      <c r="J111" s="14">
+        <v>4142920</v>
+      </c>
       <c r="K111" s="14">
         <v>414292</v>
       </c>
@@ -12591,13 +13003,13 @@
         <v>86</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F112" s="34">
         <v>42284</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H112" s="35">
         <f t="shared" si="3"/>
@@ -12607,7 +13019,6 @@
         <v>88</v>
       </c>
       <c r="J112" s="14">
-        <f t="shared" ref="J112:J113" si="8">K112*10</f>
         <v>13000000</v>
       </c>
       <c r="K112" s="14">
@@ -12629,13 +13040,13 @@
         <v>86</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F113" s="34">
         <v>42285</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H113" s="35">
         <f t="shared" si="3"/>
@@ -12645,7 +13056,6 @@
         <v>88</v>
       </c>
       <c r="J113" s="14">
-        <f t="shared" si="8"/>
         <v>12055000</v>
       </c>
       <c r="K113" s="14">
@@ -12667,13 +13077,13 @@
         <v>86</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F114" s="34">
         <v>42285</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H114" s="35" t="str">
         <f t="shared" si="3"/>
@@ -12682,7 +13092,9 @@
       <c r="I114" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J114" s="14"/>
+      <c r="J114" s="14">
+        <v>7840000</v>
+      </c>
       <c r="K114" s="14">
         <v>784000</v>
       </c>
@@ -12702,13 +13114,13 @@
         <v>86</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F115" s="34">
         <v>42287</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H115" s="35">
         <f t="shared" si="3"/>
@@ -12718,7 +13130,6 @@
         <v>88</v>
       </c>
       <c r="J115" s="14">
-        <f>K115*10</f>
         <v>2000000</v>
       </c>
       <c r="K115" s="14">
@@ -12730,7 +13141,7 @@
     </row>
     <row r="116" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="10">
-        <f t="shared" ref="B116:B122" si="9">IF(G116&lt;&gt;"",ROW()-26,"")</f>
+        <f t="shared" ref="B116:B122" si="4">IF(G116&lt;&gt;"",ROW()-26,"")</f>
         <v>90</v>
       </c>
       <c r="C116" s="33" t="s">
@@ -12740,22 +13151,24 @@
         <v>86</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F116" s="34">
         <v>42288</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H116" s="35" t="str">
-        <f t="shared" ref="H116:H122" si="10">IF(ISNA(VLOOKUP(G116,DSBR,2,0)),"",VLOOKUP(G116,DSBR,2,0))</f>
+        <f t="shared" ref="H116:H122" si="5">IF(ISNA(VLOOKUP(G116,DSBR,2,0)),"",VLOOKUP(G116,DSBR,2,0))</f>
         <v>0305495974</v>
       </c>
       <c r="I116" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J116" s="14"/>
+      <c r="J116" s="14">
+        <v>5566000</v>
+      </c>
       <c r="K116" s="14">
         <v>556600</v>
       </c>
@@ -12765,7 +13178,7 @@
     </row>
     <row r="117" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="C117" s="33" t="s">
@@ -12775,7 +13188,7 @@
         <v>86</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F117" s="34">
         <v>42289</v>
@@ -12784,13 +13197,15 @@
         <v>100</v>
       </c>
       <c r="H117" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0305002280-001</v>
       </c>
       <c r="I117" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J117" s="14"/>
+      <c r="J117" s="14">
+        <v>6663640</v>
+      </c>
       <c r="K117" s="14">
         <v>666364</v>
       </c>
@@ -12800,7 +13215,7 @@
     </row>
     <row r="118" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C118" s="33" t="s">
@@ -12810,22 +13225,24 @@
         <v>86</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F118" s="34">
         <v>42289</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H118" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0304152188</v>
       </c>
       <c r="I118" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J118" s="14"/>
+      <c r="J118" s="14">
+        <v>11760000</v>
+      </c>
       <c r="K118" s="14">
         <v>1176000</v>
       </c>
@@ -12835,7 +13252,7 @@
     </row>
     <row r="119" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="C119" s="33" t="s">
@@ -12845,7 +13262,7 @@
         <v>86</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F119" s="34">
         <v>42290</v>
@@ -12854,13 +13271,15 @@
         <v>100</v>
       </c>
       <c r="H119" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0305002280-001</v>
       </c>
       <c r="I119" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J119" s="14"/>
+      <c r="J119" s="14">
+        <v>11230529</v>
+      </c>
       <c r="K119" s="14">
         <v>1123052</v>
       </c>
@@ -12870,7 +13289,7 @@
     </row>
     <row r="120" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="C120" s="33" t="s">
@@ -12880,22 +13299,24 @@
         <v>86</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F120" s="34">
         <v>42290</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H120" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0303103212</v>
       </c>
       <c r="I120" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J120" s="14"/>
+      <c r="J120" s="14">
+        <v>1638000</v>
+      </c>
       <c r="K120" s="14">
         <v>163800</v>
       </c>
@@ -12905,7 +13326,7 @@
     </row>
     <row r="121" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="C121" s="33" t="s">
@@ -12915,22 +13336,24 @@
         <v>86</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F121" s="34">
         <v>42292</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H121" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3701770098</v>
       </c>
       <c r="I121" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J121" s="14"/>
+      <c r="J121" s="14">
+        <v>117780000</v>
+      </c>
       <c r="K121" s="14">
         <v>11778000</v>
       </c>
@@ -12940,7 +13363,7 @@
     </row>
     <row r="122" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="C122" s="33" t="s">
@@ -12950,22 +13373,24 @@
         <v>86</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F122" s="34">
         <v>42299</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H122" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I122" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J122" s="14"/>
+      <c r="J122" s="14">
+        <v>8750000</v>
+      </c>
       <c r="K122" s="14">
         <v>875000</v>
       </c>
@@ -12975,7 +13400,7 @@
     </row>
     <row r="123" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="10">
-        <f t="shared" ref="B123" si="11">IF(G123&lt;&gt;"",ROW()-26,"")</f>
+        <f t="shared" ref="B123" si="6">IF(G123&lt;&gt;"",ROW()-26,"")</f>
         <v>97</v>
       </c>
       <c r="C123" s="33" t="s">
@@ -12985,22 +13410,24 @@
         <v>86</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F123" s="34">
         <v>42300</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H123" s="35" t="str">
-        <f t="shared" ref="H123" si="12">IF(ISNA(VLOOKUP(G123,DSBR,2,0)),"",VLOOKUP(G123,DSBR,2,0))</f>
+        <f t="shared" ref="H123" si="7">IF(ISNA(VLOOKUP(G123,DSBR,2,0)),"",VLOOKUP(G123,DSBR,2,0))</f>
         <v>3603093803</v>
       </c>
       <c r="I123" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J123" s="14"/>
+      <c r="J123" s="14">
+        <v>1232200</v>
+      </c>
       <c r="K123" s="14">
         <v>123220</v>
       </c>
@@ -13010,32 +13437,34 @@
     </row>
     <row r="124" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="10">
-        <f t="shared" ref="B124:B164" si="13">IF(G124&lt;&gt;"",ROW()-26,"")</f>
+        <f t="shared" ref="B124:B164" si="8">IF(G124&lt;&gt;"",ROW()-26,"")</f>
         <v>98</v>
       </c>
       <c r="C124" s="33" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D124" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F124" s="34">
         <v>42301</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H124" s="35" t="str">
-        <f t="shared" ref="H124:H164" si="14">IF(ISNA(VLOOKUP(G124,DSBR,2,0)),"",VLOOKUP(G124,DSBR,2,0))</f>
+        <f t="shared" ref="H124:H164" si="9">IF(ISNA(VLOOKUP(G124,DSBR,2,0)),"",VLOOKUP(G124,DSBR,2,0))</f>
         <v>3701773902</v>
       </c>
       <c r="I124" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J124" s="14"/>
+      <c r="J124" s="14">
+        <v>10500000</v>
+      </c>
       <c r="K124" s="14">
         <v>1050000</v>
       </c>
@@ -13045,32 +13474,34 @@
     </row>
     <row r="125" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D125" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F125" s="34">
         <v>42301</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H125" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3700603175</v>
       </c>
       <c r="I125" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J125" s="14"/>
+      <c r="J125" s="14">
+        <v>12550000</v>
+      </c>
       <c r="K125" s="14">
         <v>1255000</v>
       </c>
@@ -13080,32 +13511,34 @@
     </row>
     <row r="126" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D126" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F126" s="34">
         <v>42301</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="H126" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>481</v>
+      </c>
+      <c r="H126" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>3702314958</v>
       </c>
       <c r="I126" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J126" s="14"/>
+      <c r="J126" s="14">
+        <v>3860000</v>
+      </c>
       <c r="K126" s="14">
         <v>386000</v>
       </c>
@@ -13115,33 +13548,32 @@
     </row>
     <row r="127" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>101</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D127" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F127" s="34">
         <v>42302</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H127" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3701770098</v>
       </c>
       <c r="I127" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J127" s="14">
-        <f>K127*10</f>
         <v>55000000</v>
       </c>
       <c r="K127" s="14">
@@ -13153,32 +13585,34 @@
     </row>
     <row r="128" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D128" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F128" s="34">
         <v>42305</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="H128" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="H128" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>3600919305</v>
       </c>
       <c r="I128" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J128" s="14"/>
+      <c r="J128" s="14">
+        <v>9764881</v>
+      </c>
       <c r="K128" s="14">
         <v>976488</v>
       </c>
@@ -13188,32 +13622,34 @@
     </row>
     <row r="129" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>103</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D129" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F129" s="34">
         <v>42305</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="H129" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>495</v>
+      </c>
+      <c r="H129" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>0313392316</v>
       </c>
       <c r="I129" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="14"/>
+      <c r="J129" s="14">
+        <v>12618386</v>
+      </c>
       <c r="K129" s="14">
         <v>1261839</v>
       </c>
@@ -13223,11 +13659,11 @@
     </row>
     <row r="130" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>104</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D130" s="33" t="s">
         <v>86</v>
@@ -13239,16 +13675,18 @@
         <v>42308</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H130" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0304152188</v>
       </c>
       <c r="I130" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J130" s="14"/>
+      <c r="J130" s="14">
+        <v>9800000</v>
+      </c>
       <c r="K130" s="14">
         <v>980000</v>
       </c>
@@ -13258,33 +13696,32 @@
     </row>
     <row r="131" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D131" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F131" s="34">
         <v>42308</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H131" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3700339107</v>
       </c>
       <c r="I131" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J131" s="14">
-        <f>K131*10</f>
         <v>6200000</v>
       </c>
       <c r="K131" s="14">
@@ -13296,32 +13733,34 @@
     </row>
     <row r="132" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D132" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F132" s="34">
         <v>42312</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H132" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0303103212</v>
       </c>
       <c r="I132" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J132" s="14"/>
+      <c r="J132" s="14">
+        <v>3244704</v>
+      </c>
       <c r="K132" s="14">
         <v>324470</v>
       </c>
@@ -13331,32 +13770,34 @@
     </row>
     <row r="133" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>107</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D133" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F133" s="34">
         <v>42313</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="H133" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>496</v>
+      </c>
+      <c r="H133" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>3700692104</v>
       </c>
       <c r="I133" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J133" s="14"/>
+      <c r="J133" s="14">
+        <v>748000</v>
+      </c>
       <c r="K133" s="14">
         <v>74800</v>
       </c>
@@ -13366,32 +13807,34 @@
     </row>
     <row r="134" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D134" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F134" s="34">
         <v>42314</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="H134" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="H134" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>3600919305</v>
       </c>
       <c r="I134" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J134" s="14"/>
+      <c r="J134" s="14">
+        <v>9181352</v>
+      </c>
       <c r="K134" s="14">
         <v>918135</v>
       </c>
@@ -13401,32 +13844,34 @@
     </row>
     <row r="135" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>109</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D135" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F135" s="34">
         <v>42314</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="H135" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="H135" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>3600919305</v>
       </c>
       <c r="I135" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J135" s="14"/>
+      <c r="J135" s="14">
+        <v>9883343</v>
+      </c>
       <c r="K135" s="14">
         <v>988334</v>
       </c>
@@ -13436,32 +13881,34 @@
     </row>
     <row r="136" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D136" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F136" s="34">
         <v>42318</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H136" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0304152188</v>
       </c>
       <c r="I136" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J136" s="14"/>
+      <c r="J136" s="14">
+        <v>9800000</v>
+      </c>
       <c r="K136" s="14">
         <v>980000</v>
       </c>
@@ -13471,33 +13918,32 @@
     </row>
     <row r="137" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F137" s="34">
         <v>42318</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="H137" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="H137" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>0310230860</v>
       </c>
       <c r="I137" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J137" s="14">
-        <f>K137*10</f>
         <v>17000000</v>
       </c>
       <c r="K137" s="14">
@@ -13509,32 +13955,34 @@
     </row>
     <row r="138" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D138" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F138" s="34">
         <v>42324</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H138" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0311731926</v>
       </c>
       <c r="I138" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J138" s="14"/>
+      <c r="J138" s="14">
+        <v>2796030</v>
+      </c>
       <c r="K138" s="14">
         <v>279603</v>
       </c>
@@ -13544,32 +13992,34 @@
     </row>
     <row r="139" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>113</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F139" s="34">
         <v>42327</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H139" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3701773902</v>
       </c>
       <c r="I139" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J139" s="14"/>
+      <c r="J139" s="14">
+        <v>6587280</v>
+      </c>
       <c r="K139" s="14">
         <v>658728</v>
       </c>
@@ -13579,32 +14029,34 @@
     </row>
     <row r="140" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D140" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F140" s="34">
         <v>42328</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H140" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3700603175</v>
       </c>
       <c r="I140" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J140" s="14"/>
+      <c r="J140" s="14">
+        <v>12550000</v>
+      </c>
       <c r="K140" s="14">
         <v>1255000</v>
       </c>
@@ -13614,32 +14066,34 @@
     </row>
     <row r="141" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>115</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F141" s="34">
         <v>42328</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H141" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0310857404</v>
       </c>
       <c r="I141" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J141" s="14"/>
+      <c r="J141" s="14">
+        <v>9248960</v>
+      </c>
       <c r="K141" s="14">
         <v>924896</v>
       </c>
@@ -13649,32 +14103,34 @@
     </row>
     <row r="142" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F142" s="34">
         <v>42329</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="H142" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>481</v>
+      </c>
+      <c r="H142" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>3702314958</v>
       </c>
       <c r="I142" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J142" s="14"/>
+      <c r="J142" s="14">
+        <v>5320000</v>
+      </c>
       <c r="K142" s="14">
         <v>532000</v>
       </c>
@@ -13684,32 +14140,34 @@
     </row>
     <row r="143" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>117</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F143" s="34">
         <v>42329</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H143" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0304152188</v>
       </c>
       <c r="I143" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J143" s="14"/>
+      <c r="J143" s="14">
+        <v>9800000</v>
+      </c>
       <c r="K143" s="14">
         <v>980000</v>
       </c>
@@ -13719,33 +14177,32 @@
     </row>
     <row r="144" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F144" s="34">
         <v>42331</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H144" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3700898056</v>
       </c>
       <c r="I144" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J144" s="14">
-        <f>K144*10</f>
         <v>3000000</v>
       </c>
       <c r="K144" s="14">
@@ -13757,32 +14214,34 @@
     </row>
     <row r="145" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D145" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F145" s="34">
         <v>42335</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H145" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0303103212</v>
       </c>
       <c r="I145" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J145" s="14"/>
+      <c r="J145" s="14">
+        <v>2888194</v>
+      </c>
       <c r="K145" s="14">
         <v>288819</v>
       </c>
@@ -13792,33 +14251,32 @@
     </row>
     <row r="146" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F146" s="34">
         <v>42336</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H146" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3700339107</v>
       </c>
       <c r="I146" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J146" s="14">
-        <f>K146*10</f>
         <v>9000000</v>
       </c>
       <c r="K146" s="14">
@@ -13830,32 +14288,34 @@
     </row>
     <row r="147" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F147" s="34">
         <v>42337</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="H147" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>485</v>
+      </c>
+      <c r="H147" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>3702375090</v>
       </c>
       <c r="I147" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J147" s="14"/>
+      <c r="J147" s="14">
+        <v>70171351</v>
+      </c>
       <c r="K147" s="14">
         <v>7017135</v>
       </c>
@@ -13865,32 +14325,34 @@
     </row>
     <row r="148" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>122</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F148" s="34">
         <v>42337</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H148" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3701770098</v>
       </c>
       <c r="I148" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J148" s="14"/>
+      <c r="J148" s="14">
+        <v>141570000</v>
+      </c>
       <c r="K148" s="14">
         <v>14157000</v>
       </c>
@@ -13900,32 +14362,34 @@
     </row>
     <row r="149" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>123</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F149" s="34">
         <v>42341</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H149" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0305495974</v>
       </c>
       <c r="I149" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J149" s="14"/>
+      <c r="J149" s="14">
+        <v>7931480</v>
+      </c>
       <c r="K149" s="14">
         <v>793148</v>
       </c>
@@ -13935,32 +14399,34 @@
     </row>
     <row r="150" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>124</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F150" s="34">
         <v>42342</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H150" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0304152188</v>
       </c>
       <c r="I150" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J150" s="14"/>
+      <c r="J150" s="14">
+        <v>9760800</v>
+      </c>
       <c r="K150" s="14">
         <v>976080</v>
       </c>
@@ -13970,32 +14436,34 @@
     </row>
     <row r="151" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D151" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F151" s="34">
         <v>42345</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H151" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0311731926</v>
       </c>
       <c r="I151" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J151" s="14"/>
+      <c r="J151" s="14">
+        <v>1606000</v>
+      </c>
       <c r="K151" s="14">
         <v>160600</v>
       </c>
@@ -14005,32 +14473,34 @@
     </row>
     <row r="152" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D152" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F152" s="34">
         <v>42350</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H152" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3603093803</v>
       </c>
       <c r="I152" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J152" s="14"/>
+      <c r="J152" s="14">
+        <v>4696500</v>
+      </c>
       <c r="K152" s="14">
         <v>469650</v>
       </c>
@@ -14040,32 +14510,34 @@
     </row>
     <row r="153" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>127</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F153" s="34">
         <v>42352</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H153" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3701770098</v>
       </c>
       <c r="I153" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J153" s="14"/>
+      <c r="J153" s="14">
+        <v>165570000</v>
+      </c>
       <c r="K153" s="14">
         <v>16557000</v>
       </c>
@@ -14075,17 +14547,17 @@
     </row>
     <row r="154" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F154" s="34">
         <v>42353</v>
@@ -14094,13 +14566,15 @@
         <v>110</v>
       </c>
       <c r="H154" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3700529186</v>
       </c>
       <c r="I154" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J154" s="14"/>
+      <c r="J154" s="14">
+        <v>4587000</v>
+      </c>
       <c r="K154" s="14">
         <v>458700</v>
       </c>
@@ -14110,32 +14584,34 @@
     </row>
     <row r="155" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>129</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F155" s="34">
         <v>42353</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H155" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3702401008</v>
       </c>
       <c r="I155" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J155" s="14"/>
+      <c r="J155" s="14">
+        <v>15435583</v>
+      </c>
       <c r="K155" s="14">
         <v>1543558</v>
       </c>
@@ -14145,32 +14621,34 @@
     </row>
     <row r="156" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F156" s="34">
         <v>42359</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H156" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0304152188</v>
       </c>
       <c r="I156" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J156" s="14"/>
+      <c r="J156" s="14">
+        <v>9800000</v>
+      </c>
       <c r="K156" s="14">
         <v>980000</v>
       </c>
@@ -14180,32 +14658,34 @@
     </row>
     <row r="157" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>131</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F157" s="34">
         <v>42360</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H157" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3603093803</v>
       </c>
       <c r="I157" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J157" s="14"/>
+      <c r="J157" s="14">
+        <v>7094640</v>
+      </c>
       <c r="K157" s="14">
         <v>709464</v>
       </c>
@@ -14215,11 +14695,11 @@
     </row>
     <row r="158" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>132</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>86</v>
@@ -14231,16 +14711,18 @@
         <v>42362</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="H158" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>481</v>
+      </c>
+      <c r="H158" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>3702314958</v>
       </c>
       <c r="I158" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J158" s="14"/>
+      <c r="J158" s="14">
+        <v>6650000</v>
+      </c>
       <c r="K158" s="14">
         <v>665000</v>
       </c>
@@ -14250,32 +14732,34 @@
     </row>
     <row r="159" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D159" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F159" s="34">
         <v>42362</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H159" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0303103212</v>
       </c>
       <c r="I159" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J159" s="14"/>
+      <c r="J159" s="14">
+        <v>4861858</v>
+      </c>
       <c r="K159" s="14">
         <v>486185</v>
       </c>
@@ -14285,32 +14769,34 @@
     </row>
     <row r="160" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D160" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F160" s="34">
         <v>42367</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H160" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3603093803</v>
       </c>
       <c r="I160" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J160" s="14"/>
+      <c r="J160" s="14">
+        <v>16224000</v>
+      </c>
       <c r="K160" s="14">
         <v>1622400</v>
       </c>
@@ -14320,33 +14806,32 @@
     </row>
     <row r="161" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D161" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F161" s="34">
         <v>42368</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H161" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3700339107</v>
       </c>
       <c r="I161" s="13" t="s">
         <v>88</v>
       </c>
       <c r="J161" s="14">
-        <f>K161*10</f>
         <v>5200000</v>
       </c>
       <c r="K161" s="14">
@@ -14358,32 +14843,34 @@
     </row>
     <row r="162" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>136</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D162" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F162" s="34">
         <v>42369</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H162" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3603093803</v>
       </c>
       <c r="I162" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J162" s="14"/>
+      <c r="J162" s="14">
+        <v>17859400</v>
+      </c>
       <c r="K162" s="14">
         <v>1785940</v>
       </c>
@@ -14393,17 +14880,17 @@
     </row>
     <row r="163" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D163" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F163" s="34">
         <v>42369</v>
@@ -14412,13 +14899,15 @@
         <v>112</v>
       </c>
       <c r="H163" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3702196486</v>
       </c>
       <c r="I163" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J163" s="14"/>
+      <c r="J163" s="14">
+        <v>75111700</v>
+      </c>
       <c r="K163" s="14">
         <v>7511170</v>
       </c>
@@ -14428,32 +14917,34 @@
     </row>
     <row r="164" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>138</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D164" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F164" s="34">
         <v>42369</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H164" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>3701773902</v>
       </c>
       <c r="I164" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J164" s="14"/>
+      <c r="J164" s="14">
+        <v>82058815</v>
+      </c>
       <c r="K164" s="14">
         <v>8205882</v>
       </c>
@@ -14487,26 +14978,26 @@
       <c r="I166" s="29"/>
       <c r="J166" s="30">
         <f>SUBTOTAL(9,J27:J165)</f>
-        <v>347401000</v>
+        <v>1116848546</v>
       </c>
       <c r="K166" s="30">
         <f>SUBTOTAL(9,K27:K165)</f>
-        <v>208317285</v>
+        <v>111684852</v>
       </c>
       <c r="L166" s="117"/>
     </row>
     <row r="167" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="168" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="135" t="s">
+      <c r="B168" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C168" s="136"/>
-      <c r="D168" s="136"/>
-      <c r="E168" s="136"/>
-      <c r="F168" s="136"/>
-      <c r="G168" s="136"/>
-      <c r="H168" s="136"/>
-      <c r="I168" s="136"/>
+      <c r="C168" s="138"/>
+      <c r="D168" s="138"/>
+      <c r="E168" s="138"/>
+      <c r="F168" s="138"/>
+      <c r="G168" s="138"/>
+      <c r="H168" s="138"/>
+      <c r="I168" s="138"/>
       <c r="J168" s="21"/>
       <c r="K168" s="21"/>
       <c r="L168" s="26"/>
@@ -14545,12 +15036,12 @@
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
       <c r="F171" s="16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G171" s="16"/>
       <c r="H171" s="115">
         <f>J166</f>
-        <v>347401000</v>
+        <v>1116848546</v>
       </c>
       <c r="I171" s="16"/>
       <c r="L171" s="16"/>
@@ -14561,12 +15052,12 @@
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
       <c r="F172" s="16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G172" s="16"/>
       <c r="H172" s="115">
         <f>K166</f>
-        <v>208317285</v>
+        <v>111684852</v>
       </c>
       <c r="I172" s="16"/>
       <c r="L172" s="16"/>
@@ -14602,7 +15093,7 @@
       <c r="H175" s="16"/>
       <c r="I175" s="120" t="str">
         <f>"Bình Dương, "&amp;IF($N$15=1,"Ngày 31 Tháng 03  ",IF($N$15=2,"Ngày 30 Tháng 06  ",IF($N$15=3,"Ngày 30 Tháng 09  ",IF($N$15=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F164)</f>
-        <v>Bình Dương, Ngày 31 Tháng 03  Năm  2015</v>
+        <v>Bình Dương, Ngày 31 Tháng 12  Năm  2015</v>
       </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.2">
@@ -14653,26 +15144,31 @@
       <c r="L179" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A16:L164"/>
-  <mergeCells count="18">
+  <autoFilter ref="A26:N164">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="17">
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B12:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B168:I168"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B168:I168"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -14691,7 +15187,7 @@
   <dimension ref="B1:S80"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18:S18"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14828,7 +15324,7 @@
       <c r="O6" s="149"/>
       <c r="P6" s="150"/>
       <c r="R6" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="S6" s="96" t="s">
         <v>114</v>
@@ -14853,10 +15349,10 @@
       <c r="O7" s="149"/>
       <c r="P7" s="150"/>
       <c r="R7" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="S7" s="96" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -14878,10 +15374,10 @@
       <c r="O8" s="149"/>
       <c r="P8" s="150"/>
       <c r="R8" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -14903,10 +15399,10 @@
       <c r="O9" s="149"/>
       <c r="P9" s="150"/>
       <c r="R9" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S9" s="96" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -14928,10 +15424,10 @@
       <c r="O10" s="149"/>
       <c r="P10" s="150"/>
       <c r="R10" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="S10" s="96" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -14953,10 +15449,10 @@
       <c r="O11" s="148"/>
       <c r="P11" s="157"/>
       <c r="R11" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="S11" s="96" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -14978,10 +15474,10 @@
       <c r="O12" s="148"/>
       <c r="P12" s="157"/>
       <c r="R12" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="S12" s="96" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -15001,10 +15497,10 @@
       <c r="O13" s="98"/>
       <c r="P13" s="99"/>
       <c r="R13" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="S13" s="96" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -15026,10 +15522,10 @@
       <c r="O14" s="155"/>
       <c r="P14" s="156"/>
       <c r="R14" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="S14" s="96" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -15051,10 +15547,10 @@
       <c r="O15" s="148"/>
       <c r="P15" s="157"/>
       <c r="R15" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="S15" s="96" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
@@ -15076,10 +15572,10 @@
       <c r="O16" s="149"/>
       <c r="P16" s="150"/>
       <c r="R16" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -15101,10 +15597,10 @@
       <c r="O17" s="101"/>
       <c r="P17" s="102"/>
       <c r="R17" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S17" s="96" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -15126,10 +15622,10 @@
       <c r="O18" s="149"/>
       <c r="P18" s="150"/>
       <c r="R18" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="S18" s="96" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -15151,9 +15647,11 @@
       <c r="O19" s="149"/>
       <c r="P19" s="150"/>
       <c r="R19" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="S19" s="96"/>
+        <v>470</v>
+      </c>
+      <c r="S19" s="96" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="97"/>
@@ -15174,9 +15672,11 @@
       <c r="O20" s="149"/>
       <c r="P20" s="150"/>
       <c r="R20" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="S20" s="96"/>
+        <v>471</v>
+      </c>
+      <c r="S20" s="96" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="97"/>
@@ -15197,9 +15697,11 @@
       <c r="O21" s="149"/>
       <c r="P21" s="150"/>
       <c r="R21" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="S21" s="96"/>
+        <v>472</v>
+      </c>
+      <c r="S21" s="96" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="97"/>
@@ -15220,9 +15722,11 @@
       <c r="O22" s="149"/>
       <c r="P22" s="150"/>
       <c r="R22" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="S22" s="96"/>
+        <v>473</v>
+      </c>
+      <c r="S22" s="96" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="97"/>
@@ -15243,9 +15747,11 @@
       <c r="O23" s="149"/>
       <c r="P23" s="150"/>
       <c r="R23" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="S23" s="96"/>
+        <v>474</v>
+      </c>
+      <c r="S23" s="96" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="97"/>
@@ -15266,9 +15772,11 @@
       <c r="O24" s="149"/>
       <c r="P24" s="150"/>
       <c r="R24" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="S24" s="96"/>
+        <v>475</v>
+      </c>
+      <c r="S24" s="96" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="97"/>
@@ -15289,9 +15797,11 @@
       <c r="O25" s="149"/>
       <c r="P25" s="150"/>
       <c r="R25" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="S25" s="96"/>
+        <v>477</v>
+      </c>
+      <c r="S25" s="96" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="97"/>
@@ -15312,9 +15822,11 @@
       <c r="O26" s="149"/>
       <c r="P26" s="150"/>
       <c r="R26" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="S26" s="96"/>
+        <v>480</v>
+      </c>
+      <c r="S26" s="96" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="97"/>
@@ -15333,9 +15845,11 @@
       <c r="O27" s="98"/>
       <c r="P27" s="99"/>
       <c r="R27" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="S27" s="96"/>
+        <v>481</v>
+      </c>
+      <c r="S27" s="96" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="97"/>
@@ -15356,9 +15870,11 @@
       <c r="O28" s="148"/>
       <c r="P28" s="157"/>
       <c r="R28" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="S28" s="96"/>
+        <v>482</v>
+      </c>
+      <c r="S28" s="96" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="97"/>
@@ -15379,9 +15895,11 @@
       <c r="O29" s="149"/>
       <c r="P29" s="150"/>
       <c r="R29" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="S29" s="96"/>
+        <v>483</v>
+      </c>
+      <c r="S29" s="96" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="97"/>
@@ -15402,9 +15920,11 @@
       <c r="O30" s="149"/>
       <c r="P30" s="150"/>
       <c r="R30" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="S30" s="96"/>
+        <v>485</v>
+      </c>
+      <c r="S30" s="96" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="97"/>
@@ -15425,9 +15945,11 @@
       <c r="O31" s="149"/>
       <c r="P31" s="150"/>
       <c r="R31" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="S31" s="96"/>
+        <v>487</v>
+      </c>
+      <c r="S31" s="96" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="97"/>
@@ -15448,9 +15970,11 @@
       <c r="O32" s="149"/>
       <c r="P32" s="150"/>
       <c r="R32" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="S32" s="96"/>
+        <v>488</v>
+      </c>
+      <c r="S32" s="96" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="97"/>
@@ -15471,7 +15995,7 @@
       <c r="O33" s="160"/>
       <c r="P33" s="161"/>
       <c r="R33" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="S33" s="96"/>
     </row>
@@ -15494,27 +16018,35 @@
       <c r="O34" s="158"/>
       <c r="P34" s="159"/>
       <c r="R34" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="S34" s="12"/>
+        <v>494</v>
+      </c>
+      <c r="S34" s="96" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R35" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="S35" s="12"/>
+        <v>495</v>
+      </c>
+      <c r="S35" s="96" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R36" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="S36" s="12"/>
+        <v>496</v>
+      </c>
+      <c r="S36" s="96" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R37" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="S37" s="12"/>
+        <v>497</v>
+      </c>
+      <c r="S37" s="96" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="105"/>
@@ -16181,8 +16713,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView topLeftCell="E7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16449,7 +16981,7 @@
         <v>232</v>
       </c>
       <c r="T10" s="62" t="s">
-        <v>233</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16471,13 +17003,13 @@
       <c r="O11" s="166"/>
       <c r="P11" s="167"/>
       <c r="R11" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="S11" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="S11" s="96" t="s">
-        <v>235</v>
-      </c>
       <c r="T11" s="62" t="s">
-        <v>236</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16501,8 +17033,12 @@
       <c r="R12" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="S12" s="96"/>
-      <c r="T12" s="62"/>
+      <c r="S12" s="96" t="s">
+        <v>523</v>
+      </c>
+      <c r="T12" s="62" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="13" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="107"/>
@@ -16523,8 +17059,12 @@
       <c r="R13" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="S13" s="96"/>
-      <c r="T13" s="62"/>
+      <c r="S13" s="96" t="s">
+        <v>525</v>
+      </c>
+      <c r="T13" s="62" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="170" t="s">
@@ -16547,8 +17087,12 @@
       <c r="R14" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="S14" s="96"/>
-      <c r="T14" s="62"/>
+      <c r="S14" s="96" t="s">
+        <v>529</v>
+      </c>
+      <c r="T14" s="62" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="107"/>
@@ -16571,8 +17115,12 @@
       <c r="R15" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="S15" s="96"/>
-      <c r="T15" s="62"/>
+      <c r="S15" s="96" t="s">
+        <v>533</v>
+      </c>
+      <c r="T15" s="62" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="107"/>
@@ -16595,8 +17143,12 @@
       <c r="R16" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
+      <c r="S16" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="T16" s="96" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="17" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="107"/>
@@ -16619,8 +17171,12 @@
       <c r="R17" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
+      <c r="S17" s="96" t="s">
+        <v>538</v>
+      </c>
+      <c r="T17" s="96" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="107"/>
@@ -16643,8 +17199,12 @@
       <c r="R18" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
+      <c r="S18" s="96" t="s">
+        <v>540</v>
+      </c>
+      <c r="T18" s="96" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="107"/>
@@ -16667,8 +17227,12 @@
       <c r="R19" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
+      <c r="S19" s="96" t="s">
+        <v>544</v>
+      </c>
+      <c r="T19" s="96" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="107"/>
@@ -16691,8 +17255,12 @@
       <c r="R20" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
+      <c r="S20" s="96" t="s">
+        <v>546</v>
+      </c>
+      <c r="T20" s="96" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="107"/>
@@ -16715,8 +17283,12 @@
       <c r="R21" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
+      <c r="S21" s="96" t="s">
+        <v>550</v>
+      </c>
+      <c r="T21" s="96" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="107"/>
@@ -16737,10 +17309,14 @@
       <c r="O22" s="168"/>
       <c r="P22" s="169"/>
       <c r="R22" s="122" t="s">
-        <v>242</v>
-      </c>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
+        <v>239</v>
+      </c>
+      <c r="S22" s="96" t="s">
+        <v>548</v>
+      </c>
+      <c r="T22" s="96" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="107"/>
@@ -16873,13 +17449,13 @@
       <c r="O27" s="168"/>
       <c r="P27" s="169"/>
       <c r="R27" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S27" s="96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T27" s="96" t="s">
-        <v>239</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
@@ -16899,10 +17475,14 @@
       <c r="O28" s="108"/>
       <c r="P28" s="109"/>
       <c r="R28" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
+        <v>240</v>
+      </c>
+      <c r="S28" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="T28" s="96" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="107"/>
@@ -16923,10 +17503,14 @@
       <c r="O29" s="166"/>
       <c r="P29" s="167"/>
       <c r="R29" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
+        <v>241</v>
+      </c>
+      <c r="S29" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="T29" s="96" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="107"/>
@@ -16947,10 +17531,14 @@
       <c r="O30" s="168"/>
       <c r="P30" s="169"/>
       <c r="R30" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
+        <v>242</v>
+      </c>
+      <c r="S30" s="96" t="s">
+        <v>552</v>
+      </c>
+      <c r="T30" s="96" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="107"/>
@@ -16971,10 +17559,14 @@
       <c r="O31" s="168"/>
       <c r="P31" s="169"/>
       <c r="R31" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
+        <v>243</v>
+      </c>
+      <c r="S31" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="T31" s="96" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="107"/>
@@ -16995,10 +17587,14 @@
       <c r="O32" s="168"/>
       <c r="P32" s="169"/>
       <c r="R32" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
+        <v>244</v>
+      </c>
+      <c r="S32" s="96" t="s">
+        <v>555</v>
+      </c>
+      <c r="T32" s="96" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="107"/>
